--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62E03F2-8D6A-41B1-827E-3C4476A6A7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DS&amp;Algo" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,25 @@
     <sheet name="Puzzles" sheetId="8" r:id="rId10"/>
     <sheet name="SQL" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="445">
   <si>
     <t>Problem</t>
   </si>
@@ -302,13 +311,7 @@
     <t>O(1)</t>
   </si>
   <si>
-    <t>Array ,List</t>
-  </si>
-  <si>
     <t>https://github.com/Learner-max/DataStructures/blob/main/Majority%20Element-%20II%20LeetCode.java</t>
-  </si>
-  <si>
-    <t>https://medium.com/@yzhua3/leetcode-majority-element-ii-f411b52b905a</t>
   </si>
   <si>
     <r>
@@ -3233,12 +3236,50 @@
     list2=list2.next;
 4.At last see if  any one list ended first then point the temp.next to non null list.</t>
   </si>
+  <si>
+    <t>https://www.techiedelight.com/find-pair-with-given-sum-array/
+https://afteracademy.com/blog/check-for-pair-in-an-array-with-a-given-sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/count-pairs-with-given-sum/
+</t>
+  </si>
+  <si>
+    <t>Count distinct pairs with given sum</t>
+  </si>
+  <si>
+    <t>Given an array arr[] of size N and an integer K, the task is to find the count of distinct pairs in the array whose sum is equal to K.</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-distinct-pairs-with-given-sum/?ref=rp
+https://leetcode.com/discuss/interview-question/372434</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/Count%20distinct%20pairs%20with%20given%20sum.java</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/majority-element/</t>
+  </si>
+  <si>
+    <t>Array ,List
+Approaches:
+1.By Sorting array
+2.By using HashMap
+3.By using Moore Vooting Algo</t>
+  </si>
+  <si>
+    <t>https://medium.com/@yzhua3/leetcode-majority-element-ii-f411b52b905a
+https://www.geeksforgeeks.org/find-all-array-elements-occurring-more-than-%E2%8C%8An-3%E2%8C%8B-times/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-for-majority-element-in-a-sorted-array/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3435,8 +3476,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF7C80"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3494,6 +3543,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,7 +3630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3646,18 +3713,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3786,6 +3841,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3795,6 +3883,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9966"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF9900CC"/>
@@ -3817,18 +3907,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>525743</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4122,21 +4218,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" style="12" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="12" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="51.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" style="12" customWidth="1"/>
@@ -4151,8 +4247,8 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="80" t="s">
-        <v>299</v>
+      <c r="B1" s="76" t="s">
+        <v>297</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -4185,8 +4281,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="60" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:13" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4194,7 +4290,7 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4230,10 +4326,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
@@ -4266,7 +4362,7 @@
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4294,12 +4390,15 @@
       <c r="K5" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="L5" s="31" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
@@ -4325,469 +4424,470 @@
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="64"/>
+      <c r="L6" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="81"/>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="14" t="s">
-        <v>51</v>
+      <c r="B8" s="81"/>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="64"/>
+        <v>193</v>
+      </c>
+      <c r="B9" s="81"/>
       <c r="C9" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="88" t="s">
+        <v>442</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="63"/>
+        <v>62</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="60"/>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="63"/>
+        <v>70</v>
+      </c>
+      <c r="B12" s="79"/>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="63"/>
+        <v>77</v>
+      </c>
+      <c r="B13" s="59"/>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="63"/>
+        <v>79</v>
+      </c>
+      <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="63"/>
+        <v>90</v>
+      </c>
+      <c r="B15" s="79"/>
       <c r="C15" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>74</v>
+      <c r="F15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="64"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="79"/>
       <c r="C16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>61</v>
+        <v>99</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
+      <c r="B18" s="60"/>
+      <c r="C18" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="K19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="11" t="s">
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="22" t="s">
+      <c r="B20" s="59"/>
+      <c r="C20" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="4"/>
       <c r="F21" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>53</v>
@@ -4796,526 +4896,526 @@
         <v>54</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="D23" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="G23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="K23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" s="7" t="s">
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="5" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>158</v>
-      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="59"/>
       <c r="C25" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>162</v>
+      <c r="F25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="65"/>
+        <v>159</v>
+      </c>
+      <c r="B26" s="80"/>
       <c r="C26" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>167</v>
+      <c r="F26" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="J26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="63"/>
+    </row>
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="80"/>
       <c r="C27" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>166</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="J27" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="63"/>
+        <v>169</v>
+      </c>
+      <c r="B28" s="59"/>
       <c r="C28" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="79"/>
+      <c r="C30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="34" t="s">
+      <c r="L30" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="D31" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="I31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="11" t="s">
+      <c r="L31" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="L30" s="22" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="5" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>202</v>
+      <c r="F32" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>205</v>
+        <v>198</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="63"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="60"/>
       <c r="C33" s="5" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="J34" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="L34" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" s="11" t="s">
+    </row>
+    <row r="35" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K33" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="5" t="s">
+      <c r="G35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="27" t="s">
+      <c r="L35" s="30" t="s">
         <v>220</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="63"/>
+        <v>224</v>
+      </c>
+      <c r="B36" s="59"/>
       <c r="C36" s="5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>54</v>
+        <v>224</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L36" s="30" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="63"/>
+        <v>231</v>
+      </c>
+      <c r="B37" s="59"/>
       <c r="C37" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>39</v>
+        <v>232</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>53</v>
@@ -5324,555 +5424,591 @@
         <v>54</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="37" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="K37" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="41" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="B39" s="62"/>
+      <c r="C39" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L39" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" s="40" t="s">
+    </row>
+    <row r="40" spans="1:12" s="37" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="62"/>
+      <c r="C40" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="40" t="s">
+      <c r="E40" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="K38" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="L38" s="44" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="41" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="46" t="s">
+      <c r="I40" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="37" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F39" s="47" t="s">
+      <c r="B41" s="62"/>
+      <c r="C41" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G39" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="H39" s="40" t="s">
+      <c r="J41" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="L41" s="40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="J39" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="K39" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="L39" s="44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="41" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="J40" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="K40" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="L40" s="44" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="5" t="s">
+      <c r="I42" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="4" t="s">
+    </row>
+    <row r="43" spans="1:12" s="51" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="B43" s="63"/>
+      <c r="C43" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="55" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="D43" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="52" t="s">
+      <c r="L43" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="56" t="s">
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K42" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="L42" s="54" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="B44" s="60"/>
+      <c r="C44" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="53" t="s">
+        <v>284</v>
+      </c>
       <c r="F44" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>54</v>
+        <v>280</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>297</v>
+        <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="63"/>
+        <v>288</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" s="59"/>
       <c r="C45" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>305</v>
+        <v>290</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="K45" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>302</v>
+        <v>296</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="5" t="s">
-        <v>316</v>
+      <c r="B47" s="59"/>
+      <c r="C47" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="59"/>
+      <c r="C48" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="J48" s="21"/>
+      <c r="K48" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="L47" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="D49" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="69" t="s">
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D48" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="21"/>
-      <c r="L49" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="5" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="21"/>
+      <c r="L50" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="H50" s="5" t="s">
+      <c r="L51" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="70"/>
-      <c r="L51" s="72" t="s">
+    </row>
+    <row r="52" spans="1:12" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="57" t="s">
         <v>341</v>
+      </c>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="66"/>
+      <c r="L52" s="68" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
-    <hyperlink ref="K6" r:id="rId3"/>
-    <hyperlink ref="K7" r:id="rId4"/>
-    <hyperlink ref="K8" r:id="rId5"/>
-    <hyperlink ref="L8" r:id="rId6"/>
-    <hyperlink ref="K9" r:id="rId7"/>
-    <hyperlink ref="K10" r:id="rId8"/>
-    <hyperlink ref="K11" r:id="rId9"/>
-    <hyperlink ref="K12" r:id="rId10" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Left%20Rotation_Solution_1.java_x000a_"/>
-    <hyperlink ref="K13" r:id="rId11" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Rotate%20Right_Solution_1.java_x000a_"/>
-    <hyperlink ref="K14" r:id="rId12"/>
-    <hyperlink ref="L16" r:id="rId13" display="https://www.geeksforgeeks.org/minimum-swaps-required-group-1s-together/"/>
-    <hyperlink ref="K15" r:id="rId14"/>
-    <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
-    <hyperlink ref="L19" r:id="rId18"/>
-    <hyperlink ref="K19" r:id="rId19" display="https://github.com/Learner-max/DataStructures/blob/main/Two%20Repeating%20Element%20in%20Array%20_Solution%231.java_x000a_"/>
-    <hyperlink ref="L20" r:id="rId20" display="https://www.youtube.com/watch?v=aMsSF1Il3IY_x000a_"/>
-    <hyperlink ref="K20" r:id="rId21" display="https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%231.java_x000a__x000a_"/>
-    <hyperlink ref="K21" r:id="rId22"/>
-    <hyperlink ref="L22" r:id="rId23"/>
-    <hyperlink ref="K22" r:id="rId24"/>
-    <hyperlink ref="L23" r:id="rId25"/>
-    <hyperlink ref="K23" r:id="rId26"/>
-    <hyperlink ref="L24" r:id="rId27"/>
-    <hyperlink ref="K24" r:id="rId28"/>
-    <hyperlink ref="L25" r:id="rId29"/>
-    <hyperlink ref="K25" r:id="rId30"/>
-    <hyperlink ref="L26" r:id="rId31"/>
-    <hyperlink ref="K27" r:id="rId32"/>
-    <hyperlink ref="K28" r:id="rId33"/>
-    <hyperlink ref="L28" r:id="rId34"/>
-    <hyperlink ref="K26" r:id="rId35"/>
-    <hyperlink ref="K29" r:id="rId36"/>
-    <hyperlink ref="L30" r:id="rId37" display="https://www.geeksforgeeks.org/find-number-of-triangles-possible/"/>
-    <hyperlink ref="K30" r:id="rId38"/>
-    <hyperlink ref="L31" r:id="rId39"/>
-    <hyperlink ref="K31" r:id="rId40"/>
-    <hyperlink ref="L32" r:id="rId41"/>
-    <hyperlink ref="K32" r:id="rId42"/>
-    <hyperlink ref="L33" r:id="rId43" display="https://leetcode.com/problems/intersection-of-two-arrays/"/>
-    <hyperlink ref="K33" r:id="rId44"/>
-    <hyperlink ref="K34" r:id="rId45"/>
-    <hyperlink ref="L34" r:id="rId46"/>
-    <hyperlink ref="L35" r:id="rId47"/>
-    <hyperlink ref="K35" r:id="rId48"/>
-    <hyperlink ref="C36" r:id="rId49" display="https://www.geeksforgeeks.org/sort-array-wave-form-2/"/>
-    <hyperlink ref="L36" r:id="rId50"/>
-    <hyperlink ref="K36" r:id="rId51"/>
-    <hyperlink ref="L37" r:id="rId52" display="https://leetcode.com/problems/next-greater-element-iii/submissions/"/>
-    <hyperlink ref="K37" r:id="rId53"/>
-    <hyperlink ref="L38" r:id="rId54"/>
-    <hyperlink ref="K38" r:id="rId55"/>
-    <hyperlink ref="L39" r:id="rId56" display="https://leetcode.com/problems/number-of-1-bits/"/>
-    <hyperlink ref="L40" r:id="rId57" display="https://www.youtube.com/watch?v=awxaRgUB4Kw_x000a__x000a_"/>
-    <hyperlink ref="K39" r:id="rId58"/>
-    <hyperlink ref="K40" r:id="rId59"/>
-    <hyperlink ref="L41" r:id="rId60" display="https://www.youtube.com/watch?v=L_fIn5TM3mM"/>
-    <hyperlink ref="K41" r:id="rId61"/>
-    <hyperlink ref="L42" r:id="rId62" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_"/>
-    <hyperlink ref="K42" r:id="rId63"/>
-    <hyperlink ref="L43" r:id="rId64" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/"/>
-    <hyperlink ref="K43" r:id="rId65"/>
-    <hyperlink ref="K44" r:id="rId66"/>
-    <hyperlink ref="L45" r:id="rId67"/>
-    <hyperlink ref="K45" r:id="rId68"/>
-    <hyperlink ref="L46" r:id="rId69" display="https://leetcode.com/problems/spiral-matrix/"/>
-    <hyperlink ref="K46" r:id="rId70"/>
-    <hyperlink ref="K47" r:id="rId71"/>
-    <hyperlink ref="L50" r:id="rId72" display="https://www.youtube.com/watch?v=4WmTRFZilj8"/>
-    <hyperlink ref="K50" r:id="rId73"/>
-    <hyperlink ref="L49" r:id="rId74" display="https://www.youtube.com/watch?v=oTfPJKGEHcc"/>
-    <hyperlink ref="L51" r:id="rId75"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L9" r:id="rId6" display="https://medium.com/@yzhua3/leetcode-majority-element-ii-f411b52b905a" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K13" r:id="rId10" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Left%20Rotation_Solution_1.java_x000a_" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K14" r:id="rId11" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Rotate%20Right_Solution_1.java_x000a_" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L17" r:id="rId13" display="https://www.geeksforgeeks.org/minimum-swaps-required-group-1s-together/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" display="https://github.com/Learner-max/DataStructures/blob/main/Two%20Repeating%20Element%20in%20Array%20_Solution%231.java_x000a_" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L21" r:id="rId20" display="https://www.youtube.com/watch?v=aMsSF1Il3IY_x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K21" r:id="rId21" display="https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%231.java_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K27" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L31" r:id="rId37" display="https://www.geeksforgeeks.org/find-number-of-triangles-possible/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L34" r:id="rId43" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K34" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L36" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K36" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C37" r:id="rId49" display="https://www.geeksforgeeks.org/sort-array-wave-form-2/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L37" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K37" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L38" r:id="rId52" display="https://leetcode.com/problems/next-greater-element-iii/submissions/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K38" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L39" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L40" r:id="rId56" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L41" r:id="rId57" display="https://www.youtube.com/watch?v=awxaRgUB4Kw_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K40" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K41" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L42" r:id="rId60" display="https://www.youtube.com/watch?v=L_fIn5TM3mM" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K42" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L43" r:id="rId62" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K43" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L44" r:id="rId64" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K44" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K45" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L46" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K46" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L47" r:id="rId69" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K47" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K48" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L51" r:id="rId72" display="https://www.youtube.com/watch?v=4WmTRFZilj8" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K51" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L50" r:id="rId74" display="https://www.youtube.com/watch?v=oTfPJKGEHcc" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L6" r:id="rId76" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
+    <hyperlink ref="C7" r:id="rId77" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
-  <drawing r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
+  <drawing r:id="rId79"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5886,7 +6022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5898,12 +6034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5926,8 +6062,8 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>299</v>
+      <c r="B1" s="75" t="s">
+        <v>297</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -5960,483 +6096,483 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="58" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+    <row r="2" spans="1:13" s="54" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>353</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>373</v>
+      <c r="L5" s="31" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="K6" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J6" s="35" t="s">
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="4" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>371</v>
+      <c r="F7" s="70" t="s">
+        <v>369</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="L7" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="K7" s="34" t="s">
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="17" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="17" t="s">
-        <v>380</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J8" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>385</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>386</v>
-      </c>
       <c r="L8" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="H9" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="K9" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="J9" s="35" t="s">
+      <c r="L9" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="L10" s="74" t="s">
         <v>396</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J10" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="K10" s="78" t="s">
-        <v>401</v>
-      </c>
-      <c r="L10" s="78" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>406</v>
-      </c>
       <c r="L11" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="I12" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="L12" s="22" t="s">
         <v>415</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B13" s="74"/>
+        <v>417</v>
+      </c>
+      <c r="B13" s="70"/>
       <c r="C13" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>423</v>
-      </c>
       <c r="L13" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>431</v>
-      </c>
       <c r="L14" s="22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>431</v>
+        <v>360</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>429</v>
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="81" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>430</v>
+    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" display="https://www.youtube.com/watch?v=INaB_TSnXPQ"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6" display="https://www.youtube.com/watch?v=9UeEw_7C36s"/>
-    <hyperlink ref="K7" r:id="rId7"/>
-    <hyperlink ref="L8" r:id="rId8" display="https://leetcode.com/problems/linked-list-cycle-ii/"/>
-    <hyperlink ref="K8" r:id="rId9"/>
-    <hyperlink ref="L9" r:id="rId10" display="https://afteracademy.com/blog/check-if-the-singly-linked-list-is-a-palindrome"/>
-    <hyperlink ref="K9" r:id="rId11"/>
-    <hyperlink ref="L10" r:id="rId12" display="https://iq.opengenus.org/reverse-linked-list-alternative-k-nodes/"/>
-    <hyperlink ref="K10" r:id="rId13"/>
-    <hyperlink ref="L11" r:id="rId14" display="https://leetcode.com/problems/copy-list-with-random-pointer/submissions/"/>
-    <hyperlink ref="K11" r:id="rId15"/>
-    <hyperlink ref="L12" r:id="rId16" display="https://algorithms.tutorialhorizon.com/alternate-splitting-of-a-given-linked-list/"/>
-    <hyperlink ref="K12" r:id="rId17"/>
-    <hyperlink ref="L13" r:id="rId18" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/"/>
-    <hyperlink ref="K13" r:id="rId19"/>
-    <hyperlink ref="L14" r:id="rId20" display="https://leetcode.com/problems/merge-two-sorted-lists/"/>
-    <hyperlink ref="K14" r:id="rId21"/>
-    <hyperlink ref="K15" r:id="rId22"/>
+    <hyperlink ref="L3" r:id="rId1" display="https://www.youtube.com/watch?v=INaB_TSnXPQ" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" display="https://www.youtube.com/watch?v=9UeEw_7C36s" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L8" r:id="rId8" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="K8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="L9" r:id="rId10" display="https://afteracademy.com/blog/check-if-the-singly-linked-list-is-a-palindrome" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="K9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L10" r:id="rId12" display="https://iq.opengenus.org/reverse-linked-list-alternative-k-nodes/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="K10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="L11" r:id="rId14" display="https://leetcode.com/problems/copy-list-with-random-pointer/submissions/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="K11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="L12" r:id="rId16" display="https://algorithms.tutorialhorizon.com/alternate-splitting-of-a-given-linked-list/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="K12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="L13" r:id="rId18" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="K13" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="L14" r:id="rId20" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="K14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="K15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -6444,7 +6580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6501,21 +6637,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+    <row r="2" spans="1:12" s="85" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6526,7 +6662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6540,7 +6676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6554,7 +6690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6568,7 +6704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6582,7 +6718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6596,7 +6732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62E03F2-8D6A-41B1-827E-3C4476A6A7CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA003C3-C38A-4127-9C96-9E20988983BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="453">
   <si>
     <t>Problem</t>
   </si>
@@ -418,28 +418,6 @@
     <t>Array [ We will be performing XOR operation on array elements]</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Idea is :
-Scan the entire array once and perform XOR operation , at last the result of XOR operation stored in a variable and it will give the only number occuring odd number of times in array.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF002060"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Basic of XOR operation:
-1.a XOR a= 0
-2.a XOR a XOR b=b
-3.a XOR a XOR a =0
-4.a XOR b XOR a XOR b XOR c=c [ XOR operation is commutative ie; a XOR b=b XOR a]</t>
-    </r>
-  </si>
-  <si>
     <t>Reverse an array</t>
   </si>
   <si>
@@ -750,58 +728,6 @@
     <t>HashMap or Array</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Using HashMap:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1.This solution will work even if all the numbers are not in the range of 1 to n.
-2.Keep the count of each element in the Hash Map.
-3.Print the elements which has count = 2.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Using Array as Index:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-This solu­tion works only if array has pos­i­tive inte­gers and all the ele­ments in the array are in range from 1 to n.
-1.Navigate the array.
-2.Update the i-th index value as arr[arr[i]]=arr[arr[i]]*-1
-if already negative that means it reoresents a repeating element</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">https://github.com/Learner-max/DataStructures/blob/main/Two%20Repeating%20Element%20in%20Array%20_Solution%231.java
 https://github.com/Learner-max/DataStructures/blob/main/Two%20Repeating%20Element%20in%20Array%20_Solution%232.java
 </t>
@@ -842,57 +768,6 @@
 https://www.youtube.com/watch?v=GeHOlt_QYz8
 https://leetcode.com/problems/find-all-duplicates-in-an-array/
 https://www.youtube.com/watch?v=iiYc32-4ZJY</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Using Array as an Index:
-Here each array element is 1&lt;=arr[i]&lt;=n(arr.length) 
-or  0&lt;=arr[i]&lt;=n-1 ** So each array elemnt acts as a valid array index.[after substracting 1 from it]
-Here for every arr[i] we flip the sign of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (index= arr[arr[i]]-1 ) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arr[index]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-if while navigating array we again encounter arr[i]  then element at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arr[index] should be negative , hence representing repeated element/duplicate element</t>
-    </r>
   </si>
   <si>
     <t>https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%231.java
@@ -3273,6 +3148,178 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/check-for-majority-element-in-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-number-occurring-odd-number-of-times/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Idea is :
+Scan the entire array once and perform XOR operation , at last the result of XOR operation stored in a variable and it will give the only number occuring odd number of times in array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basic of XOR operation:
+1.a XOR a= 0
+2.a XOR a XOR b=b
+3.a XOR a XOR a =a
+4.a XOR b XOR a XOR b XOR c=c [ XOR operation is commutative ie; a XOR b=b XOR a]</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/array-rotation/
+https://www.techiedelight.com/left-rotate-array-c/
+https://www.youtube.com/watch?v=utE_1ppU5DY</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/quickly-find-multiple-left-rotations-of-an-array/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/how-to-left-or-right-rotate-an-array-in-java/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/maximum-difference-between-two-elements/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using HashMap:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.This solution will work even if all the numbers are not in the range of 1 to n.
+2.Keep the count of each element in the Hash Map.
+3.Print the elements which has count = 2.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Using Array as Index:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This solu­tion works only if array has pos­i­tive inte­gers and all the ele­ments in the array are in range from 1 to n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Navigate the array.
+2.Update the i-th index value as arr[arr[i]]=arr[arr[i]]*-1
+if already negative that means it reoresents a repeating element</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using Array as an Index:
+Here each array element is 1&lt;=arr[i]&lt;=n(arr.length) 
+or  0&lt;=arr[i]&lt;=n-1 ** So each array elemnt acts as a valid array index.[after substracting 1 from it]
+Here for every arr[i] we flip the sign of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (index= arr[arr[i]]*-1 ) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arr[index]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if while navigating array we again encounter arr[i]  then element at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arr[index] should be negative , hence representing repeated element/duplicate element</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/?ref=rp</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hVl2b3bLzBw</t>
   </si>
 </sst>
 </file>
@@ -3485,7 +3532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3564,6 +3611,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3630,7 +3683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3853,6 +3906,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3865,14 +3927,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3883,9 +3940,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF9966"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF9900CC"/>
     </mruColors>
@@ -3911,8 +3968,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>525743</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4954868</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
@@ -4219,16 +4276,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="70.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="12" customWidth="1"/>
@@ -4239,8 +4296,8 @@
     <col min="9" max="9" width="42.7109375" style="12" customWidth="1"/>
     <col min="10" max="10" width="77.42578125" style="20" customWidth="1"/>
     <col min="11" max="11" width="145.42578125" customWidth="1"/>
-    <col min="12" max="12" width="77" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="82.5703125" customWidth="1"/>
+    <col min="13" max="13" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
@@ -4248,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -4290,7 +4347,7 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4391,11 +4448,11 @@
         <v>36</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="82" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="81"/>
@@ -4425,37 +4482,37 @@
         <v>43</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
-        <v>437</v>
+      <c r="A7" s="82" t="s">
+        <v>434</v>
       </c>
       <c r="B7" s="81"/>
       <c r="C7" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
       <c r="K7" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="83" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="81"/>
@@ -4485,12 +4542,12 @@
         <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B9" s="81"/>
       <c r="C9" s="14" t="s">
@@ -4509,8 +4566,8 @@
       <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="88" t="s">
-        <v>442</v>
+      <c r="I9" s="84" t="s">
+        <v>439</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>56</v>
@@ -4519,14 +4576,14 @@
         <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="60"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="14" t="s">
         <v>58</v>
       </c>
@@ -4553,14 +4610,14 @@
         <v>63</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="60"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
@@ -4581,249 +4638,267 @@
         <v>68</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>69</v>
+        <v>443</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="M13" s="89" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="79"/>
       <c r="C15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>94</v>
+      <c r="L15" s="2" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="79"/>
       <c r="C16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="60"/>
+        <v>110</v>
+      </c>
+      <c r="B18" s="38"/>
       <c r="C18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>54</v>
@@ -4832,53 +4907,53 @@
         <v>59</v>
       </c>
       <c r="J19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="59"/>
+        <v>120</v>
+      </c>
+      <c r="B20" s="36"/>
       <c r="C20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" s="60"/>
       <c r="C21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>39</v>
@@ -4887,7 +4962,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>53</v>
@@ -4899,29 +4974,29 @@
         <v>59</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>132</v>
+        <v>450</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>53</v>
@@ -4933,28 +5008,28 @@
         <v>59</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>53</v>
@@ -4966,22 +5041,22 @@
         <v>59</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>39</v>
@@ -4993,429 +5068,429 @@
       <c r="I24" s="4"/>
       <c r="J24" s="21"/>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B25" s="59"/>
       <c r="C25" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B26" s="80"/>
       <c r="C26" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="J26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" s="59"/>
       <c r="C29" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J30" s="21"/>
       <c r="K30" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B32" s="60"/>
       <c r="C32" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B33" s="60"/>
       <c r="C33" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B34" s="59"/>
       <c r="C34" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="I34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="22" t="s">
         <v>209</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B35" s="59"/>
       <c r="C35" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B36" s="59"/>
       <c r="C36" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B37" s="59"/>
       <c r="C37" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>53</v>
@@ -5427,29 +5502,29 @@
         <v>59</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B38" s="59"/>
       <c r="C38" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>53</v>
@@ -5461,29 +5536,29 @@
         <v>59</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="37" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B39" s="62"/>
       <c r="C39" s="42" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>53</v>
@@ -5492,423 +5567,423 @@
         <v>54</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K39" s="39" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L39" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="37" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B40" s="62"/>
       <c r="C40" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H40" s="36" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" s="40" t="s">
         <v>251</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="37" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B41" s="62"/>
       <c r="C41" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G41" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="H41" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>262</v>
-      </c>
       <c r="I41" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J41" s="41" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K41" s="39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L41" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B42" s="59"/>
       <c r="C42" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K42" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="51" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B43" s="63"/>
       <c r="C43" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J43" s="52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K43" s="49" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L43" s="50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B44" s="60"/>
       <c r="C44" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B45" s="59"/>
       <c r="C45" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B46" s="59"/>
       <c r="C46" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B47" s="59"/>
       <c r="C47" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B48" s="59"/>
       <c r="C48" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B49" s="64"/>
       <c r="C49" s="65" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="65" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="H49" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>327</v>
-      </c>
       <c r="K49" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="21"/>
       <c r="L50" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="H51" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K51" s="30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="69" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B52" s="58"/>
       <c r="C52" s="57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="58"/>
@@ -5918,7 +5993,17 @@
       <c r="I52" s="58"/>
       <c r="J52" s="66"/>
       <c r="L52" s="68" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6000,10 +6085,11 @@
     <hyperlink ref="L52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="L6" r:id="rId76" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
     <hyperlink ref="C7" r:id="rId77" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
+    <hyperlink ref="M13" r:id="rId78" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
-  <drawing r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
+  <drawing r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -6039,7 +6125,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6063,7 +6149,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -6098,7 +6184,7 @@
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -6115,438 +6201,438 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>350</v>
-      </c>
       <c r="K3" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J4" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>354</v>
-      </c>
       <c r="K4" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="K5" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>362</v>
-      </c>
       <c r="L5" s="31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="K7" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="L7" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="17" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>380</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>383</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>384</v>
-      </c>
       <c r="L8" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="I9" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="L9" s="22" t="s">
         <v>390</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="H10" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J10" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>400</v>
-      </c>
       <c r="K10" s="74" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="K12" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>412</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B13" s="70"/>
       <c r="C13" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>422</v>
-      </c>
       <c r="K13" s="22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>429</v>
-      </c>
       <c r="L14" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6637,21 +6723,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="85" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
+    <row r="2" spans="1:12" s="88" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA003C3-C38A-4127-9C96-9E20988983BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4177E-CCBC-48F3-BA6F-7C7CC495EF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="469">
   <si>
     <t>Problem</t>
   </si>
@@ -1468,55 +1468,6 @@
     <t>Using single loop:O(1)
 Using array sorting:O(logn) 
 ** If in-place sorting algo used then O(1)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Method#1: Sorting array</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Here idea is to first sort the array and then swap adjacent elements.
-TC:O(nlogn)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Method#2:Using Single loop traversal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Here idea is if arr[i]&lt;arr[i-1] then swap them.
-                         If arr[i]&gt;arr[i+1] then swap them</t>
-    </r>
   </si>
   <si>
     <t>Check if an array is Wave Array</t>
@@ -2149,10 +2100,6 @@
 Uisng Mathematical Operations:O(n)</t>
   </si>
   <si>
-    <t>Using Auxillary Array:O(1)
-Using Mathematical Operations:O(1)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Approach:
 Given 2 numbers: a and b
@@ -2883,35 +2830,6 @@
 Using Recursive Approach:O(n) **Considering Function stack</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Iterative Approach:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Idea is to take 2 pointers:
-headA=head; headB=head.next.next
- Traverse the List till headA!=null &amp;&amp; headB!=null
-      then if headA.next!=null , update headA.next=headA.next.next
-                 if headB.next!=null , update headB.next=headB.next.next
-Incement headA and headB.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                                Tree</t>
   </si>
   <si>
@@ -3321,12 +3239,185 @@
   <si>
     <t>https://www.youtube.com/watch?v=hVl2b3bLzBw</t>
   </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/equilibrium-index-of-an-array/</t>
+  </si>
+  <si>
+    <t>Using HashMap:O(n^2)</t>
+  </si>
+  <si>
+    <t>Using HAshMap:O(n)</t>
+  </si>
+  <si>
+    <t>1. Given a sorted array of positive integers. Rearrange  the array elements alternatively i.e first element should be max value, second should be min value, third should be second max, fourth should be second min and so on…</t>
+  </si>
+  <si>
+    <t>2. Postfix to Infix conversion</t>
+  </si>
+  <si>
+    <t>3. Given a binary tree, find the maximum possible sum from one leaf node to another.</t>
+  </si>
+  <si>
+    <t>1. find greatest number between two numbers with out using less than , greater than equal to operators. (took more than expected time to solve)</t>
+  </si>
+  <si>
+    <t>Next Greater element in circular array</t>
+  </si>
+  <si>
+    <t>no of island</t>
+  </si>
+  <si>
+    <t>pow(n,x)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Method#1: Sorting array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Here idea is to first sort the array and then swap adjacent elements.
+TC:O(nlogn)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Method#2:Using Single loop traversal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This can be done in O(n) time by doing a single traversal of given array. The idea is based on the fact that if we make sure that all even positioned (at index 0, 2, 4, ..) elements are greater than their adjacent odd elements, we don’t need to worry about odd positioned element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Here idea is if arr[i]&lt;arr[i-1] then swap them.
+                         If arr[i]&gt;arr[i+1] then swap them</t>
+    </r>
+  </si>
+  <si>
+    <t>Using Auxillary Array:O(n)
+Using Mathematical Operations:O(1)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/sliding-window-maximum-maximum-of-all-subarrays-of-size-k/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iterative Approach:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Idea is to take 2 pointers:
+headA=head; headB=head.next
+ Traverse the List till headA!=null &amp;&amp; headB!=null
+      then if headA.next!=null , update headA.next=headA.next.next
+                 if headB.next!=null , update headB.next=headB.next.next
+Incement headA and headB.</t>
+    </r>
+  </si>
+  <si>
+    <t>K’th Smallest/Largest Element in Unsorted Array</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=hGK_5n81drs
+https://backtobackswe.com/platform/content/find-the-kth-largest-or-smallest-element/solutions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Given an array and a number k where k is smaller than the size of the array, we need to find the k’th smallest element in the given array. I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t is given that all array elements are distinct.</t>
+    </r>
+  </si>
+  <si>
+    <t>Using Sorting:O(NlogN)
+Using MaxHeap:O(N+klogk)
+Using Randmized Partiton with Quick Select Algoritm:O(N)</t>
+  </si>
+  <si>
+    <t>Using Randmized Partiton with Quick Select Algoritm:O(1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3531,8 +3622,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3617,6 +3729,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4FECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5DF95D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3683,7 +3807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3846,19 +3970,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3915,21 +4027,64 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3940,8 +4095,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FF5DF95D"/>
+      <color rgb="FFD4FECE"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF9900CC"/>
@@ -3963,13 +4120,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4954868</xdr:colOff>
+      <xdr:colOff>4926293</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
@@ -4000,8 +4157,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36461700" y="33023175"/>
+          <a:off x="40871775" y="32604075"/>
           <a:ext cx="4650068" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1381126</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4914900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E555FDA4-8DC2-480E-916A-28F497600694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42700576" y="66065401"/>
+          <a:ext cx="3533774" cy="790574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4276,11 +4483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4503,7 @@
     <col min="9" max="9" width="42.7109375" style="12" customWidth="1"/>
     <col min="10" max="10" width="77.42578125" style="20" customWidth="1"/>
     <col min="11" max="11" width="145.42578125" customWidth="1"/>
-    <col min="12" max="12" width="82.5703125" customWidth="1"/>
+    <col min="12" max="12" width="93.42578125" customWidth="1"/>
     <col min="13" max="13" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4304,8 +4511,8 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>294</v>
+      <c r="B1" s="72" t="s">
+        <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -4383,10 +4590,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
@@ -4419,7 +4626,7 @@
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
@@ -4448,14 +4655,14 @@
         <v>36</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
@@ -4482,40 +4689,40 @@
         <v>43</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="81"/>
+      <c r="A7" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="77"/>
       <c r="C7" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
       <c r="K7" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
@@ -4542,14 +4749,14 @@
         <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
@@ -4566,8 +4773,8 @@
       <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="84" t="s">
-        <v>439</v>
+      <c r="I9" s="80" t="s">
+        <v>436</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>56</v>
@@ -4576,14 +4783,14 @@
         <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="14" t="s">
         <v>58</v>
       </c>
@@ -4610,14 +4817,14 @@
         <v>63</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
@@ -4638,20 +4845,20 @@
         <v>68</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="5" t="s">
         <v>70</v>
       </c>
@@ -4709,10 +4916,10 @@
         <v>80</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="M13" s="89" t="s">
-        <v>445</v>
+        <v>441</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4746,14 +4953,14 @@
         <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="5" t="s">
         <v>88</v>
       </c>
@@ -4780,14 +4987,14 @@
         <v>93</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="5" t="s">
         <v>95</v>
       </c>
@@ -4879,14 +5086,14 @@
         <v>108</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="90"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="3" t="s">
         <v>115</v>
       </c>
@@ -4938,7 +5145,7 @@
         <v>124</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>125</v>
@@ -4951,7 +5158,7 @@
       <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="5" t="s">
         <v>128</v>
       </c>
@@ -4974,7 +5181,7 @@
         <v>59</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>130</v>
@@ -4987,7 +5194,7 @@
       <c r="A22" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="5" t="s">
         <v>133</v>
       </c>
@@ -5013,12 +5220,15 @@
       <c r="K22" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="L22" s="30" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="23" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="24" t="s">
         <v>136</v>
       </c>
@@ -5054,7 +5264,7 @@
       <c r="A24" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="5" t="s">
         <v>144</v>
       </c>
@@ -5062,10 +5272,18 @@
         <v>39</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="7" t="s">
         <v>147</v>
@@ -5078,7 +5296,7 @@
       <c r="A25" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="59"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="5" t="s">
         <v>149</v>
       </c>
@@ -5112,7 +5330,7 @@
       <c r="A26" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="80"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="5" t="s">
         <v>155</v>
       </c>
@@ -5146,7 +5364,7 @@
       <c r="A27" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="5" t="s">
         <v>163</v>
       </c>
@@ -5180,7 +5398,7 @@
       <c r="A28" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="59"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="5" t="s">
         <v>167</v>
       </c>
@@ -5211,7 +5429,7 @@
       <c r="A29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="5" t="s">
         <v>171</v>
       </c>
@@ -5243,7 +5461,7 @@
       <c r="A30" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="5" t="s">
         <v>177</v>
       </c>
@@ -5275,7 +5493,7 @@
       <c r="A31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="5" t="s">
         <v>181</v>
       </c>
@@ -5309,7 +5527,7 @@
       <c r="A32" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="5" t="s">
         <v>188</v>
       </c>
@@ -5343,7 +5561,7 @@
       <c r="A33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="60"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="5" t="s">
         <v>198</v>
       </c>
@@ -5377,7 +5595,7 @@
       <c r="A34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="59"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="5" t="s">
         <v>205</v>
       </c>
@@ -5411,7 +5629,7 @@
       <c r="A35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="59"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="5" t="s">
         <v>214</v>
       </c>
@@ -5443,11 +5661,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="59"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="5" t="s">
         <v>222</v>
       </c>
@@ -5468,7 +5686,7 @@
         <v>59</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>227</v>
+        <v>460</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>224</v>
@@ -5479,18 +5697,18 @@
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>53</v>
@@ -5502,29 +5720,29 @@
         <v>59</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K37" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>53</v>
@@ -5536,29 +5754,29 @@
         <v>59</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="37" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="37" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="89"/>
+      <c r="C39" s="42" t="s">
         <v>239</v>
-      </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="42" t="s">
-        <v>240</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>53</v>
@@ -5567,61 +5785,61 @@
         <v>54</v>
       </c>
       <c r="I39" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J39" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="K39" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="37" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="K39" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="L39" s="40" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="37" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" s="62"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H40" s="36" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="J40" s="41" t="s">
+      <c r="L40" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="K40" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="37" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:12" s="37" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="89"/>
+      <c r="C41" s="38" t="s">
         <v>254</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="38" t="s">
-        <v>255</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>39</v>
@@ -5630,360 +5848,363 @@
         <v>215</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H41" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="I41" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="J41" s="41" t="s">
+      <c r="K41" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="L41" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="L41" s="40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I42" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="K42" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="51" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="K42" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="51" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="B43" s="90"/>
+      <c r="C43" s="48" t="s">
         <v>270</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="48" t="s">
-        <v>271</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>140</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I43" s="34" t="s">
         <v>59</v>
       </c>
       <c r="J43" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K43" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="L43" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="L43" s="50" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" s="59"/>
+        <v>285</v>
+      </c>
+      <c r="B45" s="88"/>
       <c r="C45" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>293</v>
-      </c>
       <c r="K45" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L45" s="31" t="s">
         <v>289</v>
-      </c>
-      <c r="L45" s="31" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B46" s="87"/>
+      <c r="C46" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>300</v>
+        <v>461</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B47" s="59"/>
+        <v>304</v>
+      </c>
+      <c r="B47" s="88"/>
       <c r="C47" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B48" s="88"/>
+      <c r="C48" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="30" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>317</v>
-      </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="B49" s="92"/>
+      <c r="C49" s="61" t="s">
+        <v>316</v>
       </c>
       <c r="D49" s="47" t="s">
         <v>140</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>319</v>
+      <c r="L49" s="2" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="21"/>
       <c r="L50" s="22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="88"/>
+      <c r="C51" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5" t="s">
-        <v>327</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K51" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="69" t="s">
-        <v>337</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="65" t="s">
+        <v>335</v>
       </c>
       <c r="B52" s="58"/>
       <c r="C52" s="57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="58"/>
@@ -5991,19 +6212,68 @@
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
       <c r="I52" s="58"/>
-      <c r="J52" s="66"/>
-      <c r="L52" s="68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>451</v>
+      <c r="J52" s="62"/>
+      <c r="L52" s="64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="100" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" s="74"/>
+      <c r="C53" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="74"/>
+      <c r="F53" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G53" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="H53" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="I53" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="99"/>
+      <c r="L53" s="101" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="86" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -6086,10 +6356,11 @@
     <hyperlink ref="L6" r:id="rId76" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
     <hyperlink ref="C7" r:id="rId77" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
     <hyperlink ref="M13" r:id="rId78" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
+    <hyperlink ref="L22" r:id="rId79" xr:uid="{466A3819-F426-4D63-83F0-790B9AD18264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
-  <drawing r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
+  <drawing r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -6123,9 +6394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6148,8 +6419,8 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>294</v>
+      <c r="B1" s="71" t="s">
+        <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -6184,7 +6455,7 @@
     </row>
     <row r="2" spans="1:13" s="54" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -6201,438 +6472,438 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="B3" s="93"/>
       <c r="C3" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>341</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>346</v>
+      </c>
+      <c r="B4" s="88"/>
       <c r="C4" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" s="22" t="s">
         <v>348</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="B5" s="88"/>
       <c r="C5" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>359</v>
-      </c>
       <c r="L5" s="31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>358</v>
+      </c>
+      <c r="B6" s="88"/>
       <c r="C6" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="K6" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J6" s="31" t="s">
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="4" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>366</v>
+      <c r="F7" s="66" t="s">
+        <v>364</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="L7" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="K7" s="30" t="s">
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="66" t="s">
         <v>372</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="17" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
-        <v>374</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="17" t="s">
-        <v>375</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J8" s="67" t="s">
         <v>378</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="K8" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>380</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>381</v>
-      </c>
       <c r="L8" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>380</v>
+      </c>
+      <c r="B9" s="88"/>
       <c r="C9" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="K9" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="L9" s="22" t="s">
         <v>388</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="B10" s="25"/>
+        <v>389</v>
+      </c>
+      <c r="B10" s="94"/>
       <c r="C10" s="24" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="K10" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="70" t="s">
         <v>391</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="L10" s="74" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>401</v>
-      </c>
       <c r="L11" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="I12" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="L12" s="22" t="s">
         <v>409</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>410</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="70"/>
+        <v>411</v>
+      </c>
+      <c r="B13" s="66"/>
       <c r="C13" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J13" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>419</v>
-      </c>
       <c r="K13" s="22" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>426</v>
-      </c>
       <c r="L14" s="22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6723,21 +6994,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="88" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>411</v>
-      </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
+    <row r="2" spans="1:12" s="98" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6805,15 +7076,38 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+    </row>
+    <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4177E-CCBC-48F3-BA6F-7C7CC495EF15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1150B8-DCCF-4F87-ABB2-5E4037A4E90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="477">
   <si>
     <t>Problem</t>
   </si>
@@ -2361,10 +2361,6 @@
 If target is found in the array return its index, otherwise, return -1</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oTfPJKGEHcc
-https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
-  </si>
-  <si>
     <t>https://www.techiedelight.com/maximize-value-of-the-expression/</t>
   </si>
   <si>
@@ -3405,19 +3401,99 @@
     </r>
   </si>
   <si>
-    <t>Using Sorting:O(NlogN)
+    <t>Using Randmized Partiton with Quick Select Algoritm:O(1)</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/Kth%20Smallest%20Element.java</t>
+  </si>
+  <si>
+    <t>Idea is to use Partitionig Algorithm from Quick Sort.Only Difference is we don’t recur for both sides of pivot, instead we let go of side where there is no possibility of finding the kth Element.
+1.Select a pivot index.(or let it be Random)
+2.Mark two pointers l and r
+3.set lesserElementTailIndex=l
+4.start traversing array from i-&gt;l to r-1 
+5.if(arr[i]&lt;pivotvalue) then swap(arr[lesserElementTailIndex] and arr[i])
+increment lesserElementTailIndex and i
+6. at last  swap(arr[lesserElementTailIndex] and arr[r] r-&gt;pivotIndex; Index where pivot sits)
+7.return lesserElementTailIndex
+8.now check if pos=lesserElementTailIndex; pos+1==k -&gt;found
+else pos+1&gt;k kth element will be on left of pos. r=pos-1
+else pos+1&lt;k kth element will be on right of pos.l=pos+1
+RECUR the above steps till l&lt;=r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Sorting:O(NlogN)
 Using MaxHeap:O(N+klogk)
-Using Randmized Partiton with Quick Select Algoritm:O(N)</t>
-  </si>
-  <si>
-    <t>Using Randmized Partiton with Quick Select Algoritm:O(1)</t>
+Using Randmized Partiton with Quick Select Algoritm:O(N)****
+***T(n)=T(n-1)+T(n/2)
+n-&gt;n/2-&gt;n/4-&gt;…..-&gt;0
+T(1)=0
+Generalized=(n/2^i-1)
+Depth :logn
+</t>
+  </si>
+  <si>
+    <t>Rearrange positive and negative numbers with constant extra space</t>
+  </si>
+  <si>
+    <r>
+      <t>Given an array of positive and negative numbers, arrange them such that all negative integers appear before all the positive integers in the array </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without using any additional data structure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF273239"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF273239"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ike hash table, arrays, etc. The order of appearance should be maintained.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/RearrangeArrayElements.java</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oTfPJKGEHcc
+https://leetcode.com/problems/search-in-rotated-sorted-array/
+https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/</t>
+  </si>
+  <si>
+    <t>Using Binary Search approach:O(logn)(with2 array traversal)
+Using Binary Search approach:O(logn)(with 1 array traversal and use of Recursive Binary Search)</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/SearchInRoatedArray.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3635,10 +3711,31 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF273239"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF273239"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF273239"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4079,12 +4176,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4483,16 +4580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="77" style="12" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="12" customWidth="1"/>
@@ -4655,7 +4752,7 @@
         <v>36</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -4689,33 +4786,33 @@
         <v>43</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B7" s="77"/>
       <c r="C7" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
       <c r="K7" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -4749,7 +4846,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4774,7 +4871,7 @@
         <v>54</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J9" s="11" t="s">
         <v>56</v>
@@ -4783,7 +4880,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -4817,7 +4914,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -4845,13 +4942,13 @@
         <v>68</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -4916,10 +5013,10 @@
         <v>80</v>
       </c>
       <c r="L13" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13" s="81" t="s">
         <v>441</v>
-      </c>
-      <c r="M13" s="81" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -4953,7 +5050,7 @@
         <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -4987,7 +5084,7 @@
         <v>93</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5086,7 +5183,7 @@
         <v>108</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5145,7 +5242,7 @@
         <v>124</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>125</v>
@@ -5181,7 +5278,7 @@
         <v>59</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>130</v>
@@ -5221,7 +5318,7 @@
         <v>135</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -5276,10 +5373,10 @@
         <v>145</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>59</v>
@@ -5686,7 +5783,7 @@
         <v>59</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K36" s="30" t="s">
         <v>224</v>
@@ -6028,7 +6125,7 @@
         <v>298</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>59</v>
@@ -6138,7 +6235,7 @@
         <v>317</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -6156,12 +6253,21 @@
       <c r="F50" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="G50" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="J50" s="21"/>
+      <c r="K50" s="2" t="s">
+        <v>476</v>
+      </c>
       <c r="L50" s="22" t="s">
-        <v>333</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -6200,11 +6306,11 @@
     </row>
     <row r="52" spans="1:12" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B52" s="58"/>
       <c r="C52" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="58"/>
@@ -6214,66 +6320,103 @@
       <c r="I52" s="58"/>
       <c r="J52" s="62"/>
       <c r="L52" s="64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="100" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="99" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B53" s="74"/>
       <c r="C53" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D53" s="74" t="s">
         <v>140</v>
       </c>
       <c r="E53" s="74"/>
       <c r="F53" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G53" s="91" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H53" s="91" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I53" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="99"/>
-      <c r="L53" s="101" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>448</v>
+      <c r="J53" s="101" t="s">
+        <v>468</v>
+      </c>
+      <c r="K53" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="L53" s="100" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="99" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" s="74"/>
+      <c r="C54" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="I54" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="101"/>
+      <c r="K54" s="99" t="s">
+        <v>472</v>
+      </c>
+      <c r="L54" s="100" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="86" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>457</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="86" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -6472,438 +6615,438 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="93"/>
       <c r="C3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>340</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B4" s="88"/>
       <c r="C4" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="J4" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="88"/>
       <c r="C5" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="K5" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="K5" s="22" t="s">
-        <v>357</v>
-      </c>
       <c r="L5" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B6" s="88"/>
       <c r="C6" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="K7" s="30" t="s">
+      <c r="L7" s="22" t="s">
         <v>370</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="88"/>
       <c r="C8" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="88"/>
       <c r="C9" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G9" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="I9" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="L9" s="22" t="s">
         <v>387</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="26" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B10" s="94"/>
       <c r="C10" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G10" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="K10" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="I10" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>395</v>
-      </c>
-      <c r="K10" s="70" t="s">
-        <v>394</v>
-      </c>
       <c r="L10" s="70" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>402</v>
-      </c>
       <c r="K11" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>406</v>
-      </c>
       <c r="L12" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>415</v>
-      </c>
       <c r="L13" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>417</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -6996,7 +7139,7 @@
     </row>
     <row r="2" spans="1:12" s="98" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
@@ -7092,17 +7235,17 @@
     </row>
     <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1150B8-DCCF-4F87-ABB2-5E4037A4E90A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4205E6-24B4-4743-B482-A1B55BD122C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="ManualTestCases" sheetId="7" r:id="rId9"/>
     <sheet name="Puzzles" sheetId="8" r:id="rId10"/>
     <sheet name="SQL" sheetId="9" r:id="rId11"/>
+    <sheet name="Add-On" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="490">
   <si>
     <t>Problem</t>
   </si>
@@ -3488,12 +3489,54 @@
   <si>
     <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/SearchInRoatedArray.java</t>
   </si>
+  <si>
+    <t>Find the Minimum Element in a Sorted and Rotated Array</t>
+  </si>
+  <si>
+    <t>A sorted array is rotated at some unknown point, find the minimum element in it. </t>
+  </si>
+  <si>
+    <t>Using linear Search:O(n)
+Using modified Binary Search:O(logn)</t>
+  </si>
+  <si>
+    <t>Using linear Search:O(1)
+Using modified Binary Search:O(1)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/submissions/
+https://www.geeksforgeeks.org/find-minimum-element-in-a-sorted-and-rotated-array/</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/MinInSortedRotatedArray.java</t>
+  </si>
+  <si>
+    <t>Search an element in a circular sorted array</t>
+  </si>
+  <si>
+    <t>Find the first or last occurrence of a given number in a sorted array</t>
+  </si>
+  <si>
+    <t>Count occurrences of a number in a sorted array with duplicates</t>
+  </si>
+  <si>
+    <t>Find smallest missing element from a sorted array</t>
+  </si>
+  <si>
+    <t>Find Floor and Ceil of a number in a sorted array</t>
+  </si>
+  <si>
+    <t>Search in a nearly sorted array</t>
+  </si>
+  <si>
+    <t>Find the peak element in an array</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3740,6 +3783,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -3904,7 +3953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4164,24 +4213,27 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4580,11 +4632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,7 +6375,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="99" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="95" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>463</v>
       </c>
@@ -6347,75 +6399,107 @@
       <c r="I53" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="101" t="s">
+      <c r="J53" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="K53" s="99" t="s">
+      <c r="K53" s="95" t="s">
         <v>467</v>
       </c>
-      <c r="L53" s="100" t="s">
+      <c r="L53" s="96" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="99" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>470</v>
+    <row r="54" spans="1:12" s="95" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="B54" s="74"/>
       <c r="C54" s="5" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D54" s="74" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="74"/>
-      <c r="F54" s="5" t="s">
-        <v>470</v>
+      <c r="F54" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="G54" s="91" t="s">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="H54" s="91" t="s">
-        <v>54</v>
+        <v>480</v>
       </c>
       <c r="I54" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J54" s="101"/>
-      <c r="K54" s="99" t="s">
+      <c r="J54" s="97"/>
+      <c r="K54" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="L54" s="96" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="95" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B55" s="74"/>
+      <c r="C55" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D55" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="74"/>
+      <c r="F55" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G55" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="97"/>
+      <c r="K55" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="L54" s="100" t="s">
+      <c r="L55" s="96" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="86" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6533,6 +6617,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B36D5-D3E7-4D26-B6BF-4691E0D5A414}">
+  <dimension ref="A6:A12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
@@ -7137,21 +7274,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="98" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:12" s="101" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,23 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4205E6-24B4-4743-B482-A1B55BD122C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA689971-2338-4B05-A8AC-11CC929A0ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DS&amp;Algo" sheetId="1" r:id="rId1"/>
-    <sheet name="DS&amp;Algo_1" sheetId="10" r:id="rId2"/>
-    <sheet name="DS-Tree" sheetId="11" r:id="rId3"/>
-    <sheet name="Java" sheetId="2" r:id="rId4"/>
-    <sheet name="WebServices" sheetId="3" r:id="rId5"/>
-    <sheet name="BDD" sheetId="4" r:id="rId6"/>
-    <sheet name="Selenium&amp;Testng" sheetId="5" r:id="rId7"/>
-    <sheet name="CICD" sheetId="6" r:id="rId8"/>
-    <sheet name="ManualTestCases" sheetId="7" r:id="rId9"/>
-    <sheet name="Puzzles" sheetId="8" r:id="rId10"/>
-    <sheet name="SQL" sheetId="9" r:id="rId11"/>
-    <sheet name="Add-On" sheetId="12" r:id="rId12"/>
+    <sheet name="Arrays" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Search" sheetId="13" r:id="rId2"/>
+    <sheet name="LinkedList" sheetId="10" r:id="rId3"/>
+    <sheet name="Tree" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId5"/>
+    <sheet name="Java" sheetId="2" r:id="rId6"/>
+    <sheet name="WebServices" sheetId="3" r:id="rId7"/>
+    <sheet name="BDD" sheetId="4" r:id="rId8"/>
+    <sheet name="Selenium&amp;Testng" sheetId="5" r:id="rId9"/>
+    <sheet name="CICD" sheetId="6" r:id="rId10"/>
+    <sheet name="ManualTestCases" sheetId="7" r:id="rId11"/>
+    <sheet name="Puzzles" sheetId="8" r:id="rId12"/>
+    <sheet name="SQL" sheetId="9" r:id="rId13"/>
+    <sheet name="Add-On" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="495">
   <si>
     <t>Problem</t>
   </si>
@@ -3478,11 +3480,6 @@
     <t>https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oTfPJKGEHcc
-https://leetcode.com/problems/search-in-rotated-sorted-array/
-https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/</t>
-  </si>
-  <si>
     <t>Using Binary Search approach:O(logn)(with2 array traversal)
 Using Binary Search approach:O(logn)(with 1 array traversal and use of Recursive Binary Search)</t>
   </si>
@@ -3530,6 +3527,41 @@
   </si>
   <si>
     <t>Find the peak element in an array</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.youtube.com/watch?v=oTfPJKGEHcc
+https://leetcode.com/problems/search-in-rotated-sorted-array/
+https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://leetcode.com/problems/search-in-rotated-sorted-array-ii/submissions/</t>
+    </r>
+  </si>
+  <si>
+    <t>Search in Nearly Sorted Array</t>
+  </si>
+  <si>
+    <t>Given an array which is sorted, but after sorting some elements are moved to either of the adjacent positions, i.e., arr[i] may be present at arr[i+1] or arr[i-1]. Write an efficient function to search an element in this array. Basically the element arr[i] can only be swapped with either arr[i+1] or arr[i-1].</t>
+  </si>
+  <si>
+    <t>Binary Search:O(logn)</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/Search%20In%20Nearly%20Sorted%20Array.java</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/search-almost-sorted-array/</t>
   </si>
 </sst>
 </file>
@@ -3953,7 +3985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4164,9 +4196,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4220,6 +4249,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4231,9 +4263,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4632,11 +4661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,7 +4837,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="90" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="77"/>
@@ -4842,7 +4871,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="90" t="s">
         <v>430</v>
       </c>
       <c r="B7" s="77"/>
@@ -4868,7 +4897,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="77"/>
@@ -4922,7 +4951,7 @@
       <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="79" t="s">
         <v>435</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -5067,7 +5096,7 @@
       <c r="L13" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="M13" s="81" t="s">
+      <c r="M13" s="80" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5242,7 +5271,7 @@
       <c r="A19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="82"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="3" t="s">
         <v>115</v>
       </c>
@@ -5307,7 +5336,7 @@
       <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="83"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="5" t="s">
         <v>128</v>
       </c>
@@ -5374,7 +5403,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="83" t="s">
         <v>139</v>
       </c>
       <c r="B23" s="60"/>
@@ -5642,7 +5671,7 @@
       <c r="A31" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="87"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="5" t="s">
         <v>181</v>
       </c>
@@ -5676,7 +5705,7 @@
       <c r="A32" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="83"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="5" t="s">
         <v>188</v>
       </c>
@@ -5710,7 +5739,7 @@
       <c r="A33" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="83"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="5" t="s">
         <v>198</v>
       </c>
@@ -5744,7 +5773,7 @@
       <c r="A34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="5" t="s">
         <v>205</v>
       </c>
@@ -5778,7 +5807,7 @@
       <c r="A35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="5" t="s">
         <v>214</v>
       </c>
@@ -5814,7 +5843,7 @@
       <c r="A36" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="87"/>
+      <c r="B36" s="86"/>
       <c r="C36" s="5" t="s">
         <v>222</v>
       </c>
@@ -5848,7 +5877,7 @@
       <c r="A37" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="87"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="5" t="s">
         <v>228</v>
       </c>
@@ -5882,7 +5911,7 @@
       <c r="A38" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B38" s="87"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="5" t="s">
         <v>233</v>
       </c>
@@ -5916,7 +5945,7 @@
       <c r="A39" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="42" t="s">
         <v>239</v>
       </c>
@@ -5950,7 +5979,7 @@
       <c r="A40" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="B40" s="89"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="42" t="s">
         <v>251</v>
       </c>
@@ -5986,7 +6015,7 @@
       <c r="A41" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="38" t="s">
         <v>254</v>
       </c>
@@ -6022,7 +6051,7 @@
       <c r="A42" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B42" s="82"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="5" t="s">
         <v>262</v>
       </c>
@@ -6058,7 +6087,7 @@
       <c r="A43" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="90"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="48" t="s">
         <v>270</v>
       </c>
@@ -6092,7 +6121,7 @@
       <c r="A44" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="5" t="s">
         <v>278</v>
       </c>
@@ -6128,7 +6157,7 @@
       <c r="A45" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B45" s="88"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="5" t="s">
         <v>287</v>
       </c>
@@ -6162,7 +6191,7 @@
       <c r="A46" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B46" s="87"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="5" t="s">
         <v>295</v>
       </c>
@@ -6196,7 +6225,7 @@
       <c r="A47" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B47" s="88"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="4" t="s">
         <v>301</v>
       </c>
@@ -6228,7 +6257,7 @@
       <c r="A48" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B48" s="88"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="5" t="s">
         <v>309</v>
       </c>
@@ -6260,7 +6289,7 @@
       <c r="A49" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="92"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="61" t="s">
         <v>316</v>
       </c>
@@ -6306,7 +6335,7 @@
         <v>331</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>54</v>
@@ -6316,17 +6345,17 @@
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B51" s="88"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="5" t="s">
         <v>325</v>
       </c>
@@ -6375,7 +6404,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="95" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="94" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>463</v>
       </c>
@@ -6390,116 +6419,148 @@
       <c r="F53" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G53" s="91" t="s">
+      <c r="G53" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="H53" s="91" t="s">
+      <c r="H53" s="90" t="s">
         <v>466</v>
       </c>
       <c r="I53" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J53" s="97" t="s">
+      <c r="J53" s="96" t="s">
         <v>468</v>
       </c>
-      <c r="K53" s="95" t="s">
+      <c r="K53" s="94" t="s">
         <v>467</v>
       </c>
-      <c r="L53" s="96" t="s">
+      <c r="L53" s="95" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="95" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="94" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B54" s="74"/>
       <c r="C54" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D54" s="74" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="74"/>
       <c r="F54" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G54" s="91" t="s">
+        <v>476</v>
+      </c>
+      <c r="G54" s="90" t="s">
+        <v>478</v>
+      </c>
+      <c r="H54" s="90" t="s">
         <v>479</v>
-      </c>
-      <c r="H54" s="91" t="s">
-        <v>480</v>
       </c>
       <c r="I54" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J54" s="97"/>
-      <c r="K54" s="95" t="s">
-        <v>482</v>
-      </c>
-      <c r="L54" s="96" t="s">
+      <c r="J54" s="96"/>
+      <c r="K54" s="94" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" s="95" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>470</v>
+      <c r="L54" s="95" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="94" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="B55" s="74"/>
       <c r="C55" s="5" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="D55" s="74" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="74"/>
-      <c r="F55" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G55" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="91" t="s">
+      <c r="F55" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G55" s="90" t="s">
+        <v>492</v>
+      </c>
+      <c r="H55" s="90" t="s">
         <v>54</v>
       </c>
       <c r="I55" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="J55" s="97"/>
-      <c r="K55" s="95" t="s">
+      <c r="J55" s="96"/>
+      <c r="K55" s="94" t="s">
+        <v>493</v>
+      </c>
+      <c r="L55" s="95" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="94" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B56" s="74"/>
+      <c r="C56" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="74"/>
+      <c r="F56" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="I56" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="96"/>
+      <c r="K56" s="94" t="s">
         <v>472</v>
       </c>
-      <c r="L55" s="96" t="s">
+      <c r="L56" s="95" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="86" t="s">
+    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="85" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6592,6 +6653,57 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84"/>
+    </row>
+    <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6605,7 +6717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6617,7 +6729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B36D5-D3E7-4D26-B6BF-4691E0D5A414}">
   <dimension ref="A6:A12"/>
   <sheetViews>
@@ -6631,38 +6743,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="97" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+    <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+    <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+    <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+    <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+    <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6671,6 +6783,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5BC23-FAF0-41AF-B3E7-457CD7E2F189}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="49.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -6754,7 +6940,7 @@
       <c r="A3" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="5" t="s">
         <v>337</v>
       </c>
@@ -6787,7 +6973,7 @@
       <c r="A4" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="5" t="s">
         <v>346</v>
       </c>
@@ -6817,7 +7003,7 @@
       <c r="A5" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="5" t="s">
         <v>350</v>
       </c>
@@ -6850,7 +7036,7 @@
       <c r="A6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
       </c>
@@ -6880,7 +7066,7 @@
       <c r="A7" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="4" t="s">
         <v>364</v>
       </c>
@@ -6913,7 +7099,7 @@
       <c r="A8" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="17" t="s">
         <v>372</v>
       </c>
@@ -6946,7 +7132,7 @@
       <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="5" t="s">
         <v>382</v>
       </c>
@@ -6982,7 +7168,7 @@
       <c r="A10" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="24" t="s">
         <v>389</v>
       </c>
@@ -7216,7 +7402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -7298,7 +7484,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D84AC1-E183-4013-B0BF-457B6B1DDD6C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7312,7 +7510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7326,7 +7524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7340,7 +7538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7352,55 +7550,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:A5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-    </row>
-    <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,25 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA689971-2338-4B05-A8AC-11CC929A0ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E53053-94C7-4C52-B176-7C9C9ECCCD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="13" r:id="rId2"/>
     <sheet name="LinkedList" sheetId="10" r:id="rId3"/>
     <sheet name="Tree" sheetId="11" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId5"/>
-    <sheet name="Java" sheetId="2" r:id="rId6"/>
-    <sheet name="WebServices" sheetId="3" r:id="rId7"/>
-    <sheet name="BDD" sheetId="4" r:id="rId8"/>
-    <sheet name="Selenium&amp;Testng" sheetId="5" r:id="rId9"/>
+    <sheet name="DP" sheetId="14" r:id="rId5"/>
+    <sheet name="String" sheetId="3" r:id="rId6"/>
+    <sheet name="StackQueue" sheetId="4" r:id="rId7"/>
+    <sheet name="Graph" sheetId="5" r:id="rId8"/>
+    <sheet name="Misc" sheetId="9" r:id="rId9"/>
     <sheet name="CICD" sheetId="6" r:id="rId10"/>
-    <sheet name="ManualTestCases" sheetId="7" r:id="rId11"/>
-    <sheet name="Puzzles" sheetId="8" r:id="rId12"/>
-    <sheet name="SQL" sheetId="9" r:id="rId13"/>
-    <sheet name="Add-On" sheetId="12" r:id="rId14"/>
+    <sheet name="Puzzles" sheetId="8" r:id="rId11"/>
+    <sheet name="ManualTestCases" sheetId="7" r:id="rId12"/>
+    <sheet name="Add-On" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="506">
   <si>
     <t>Problem</t>
   </si>
@@ -3233,12 +3232,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/?ref=rp</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hVl2b3bLzBw</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/equilibrium-index-of-an-array/</t>
   </si>
   <si>
@@ -3255,18 +3248,6 @@
   </si>
   <si>
     <t>3. Given a binary tree, find the maximum possible sum from one leaf node to another.</t>
-  </si>
-  <si>
-    <t>1. find greatest number between two numbers with out using less than , greater than equal to operators. (took more than expected time to solve)</t>
-  </si>
-  <si>
-    <t>Next Greater element in circular array</t>
-  </si>
-  <si>
-    <t>no of island</t>
-  </si>
-  <si>
-    <t>pow(n,x)</t>
   </si>
   <si>
     <r>
@@ -3563,12 +3544,134 @@
   <si>
     <t>https://www.geeksforgeeks.org/search-almost-sorted-array/</t>
   </si>
+  <si>
+    <t>Bitonic Point</t>
+  </si>
+  <si>
+    <r>
+      <t>Given an array </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>arr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> elements which is first increasing and then may be decreasing, find the maximum element in the array.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">O(logn)
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Customized Binary Search:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Find mid
+2.if arr[mid]&gt;arr[mid-1] &amp;&amp; arr[mid]&gt;arrr[mid+1]---&gt; then return mid
+3.Else if arr[mid]&lt; arr[mid-1]  --&gt; serach for max element in left half h=mid-1
+4.Else search in right half
+here we have to make a change in order to avoid ArrayIndexOutOfBoundException
+instead of comparing mid wit mid-1 and mid+1 use:
+next=(mid+1)%n and prev=(mid+n-1) % n</t>
+    </r>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-value-in-a-bitonic-array3001/1#</t>
+  </si>
+  <si>
+    <t>Binary Search in Forest</t>
+  </si>
+  <si>
+    <t>Using Brute Force:O(hmax*n)
+Using Binary Search:O(nloghmax)</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/ffd66b6a0bf7cefb9987fa455974b6ea5695709e/1#
+https://www.geeksforgeeks.org/value-to-be-subtracted-from-array-elements-to-make-sum-of-all-elements-equals-k/</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/BinarySearchInForest.txt</t>
+  </si>
+  <si>
+    <t>Floor in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Given a sorted array and a value x, the floor of x is the largest element in array smaller than or equal to x. Write efficient functions to find floor of x.</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/FloorOfElementInSortedArray.java</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/floor-in-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>Given an array of letters sorted in ascending order, find the smallest letter in the the array which is greater than a given key letter.</t>
+  </si>
+  <si>
+    <t>Next Alphabetical Element</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X45c37QMdX0&amp;list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2&amp;index=12</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/submissions/
+https://github.com/Learner-max/DataStructures/blob/main/Arrays/NextGreaterElement.java</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3821,8 +3924,21 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3892,12 +4008,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7C80"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4148,9 +4258,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4196,47 +4303,41 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4263,6 +4364,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4299,13 +4409,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4926293</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1285875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4349,13 +4459,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1381126</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4914900</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>895350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4661,16 +4771,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77" style="12" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" style="12" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="12" customWidth="1"/>
@@ -4689,7 +4799,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -4728,562 +4838,557 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>21</v>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="77"/>
+        <v>43</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="76"/>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>431</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>36</v>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9" t="s">
+        <v>433</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="77"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="76"/>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
-        <v>430</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="5" t="s">
-        <v>431</v>
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="K7" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="76"/>
+      <c r="C8" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="79" t="s">
-        <v>435</v>
+        <v>65</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>39</v>
+        <v>439</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
+      <c r="F10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="77"/>
+        <v>73</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="36"/>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>65</v>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="75"/>
+        <v>78</v>
+      </c>
+      <c r="B12" s="36"/>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="B13" s="74"/>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="M13" s="80" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="36"/>
+        <v>94</v>
+      </c>
+      <c r="B14" s="74"/>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>85</v>
+      <c r="F14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="75"/>
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="38"/>
       <c r="C15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>59</v>
+      <c r="F15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="75"/>
+        <v>107</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="38"/>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="38"/>
+        <v>118</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="36"/>
       <c r="C18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>127</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="5" t="s">
-        <v>110</v>
+      <c r="F18" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>113</v>
+        <v>445</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>54</v>
@@ -5292,232 +5397,233 @@
         <v>59</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>39</v>
+        <v>133</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>123</v>
+      <c r="F20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="5" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>130</v>
+      <c r="J21" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="5" t="s">
-        <v>132</v>
+      <c r="F22" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>448</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>54</v>
+        <v>449</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="24" t="s">
-        <v>136</v>
+      <c r="J22" s="21"/>
+      <c r="K22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="28" t="s">
-        <v>141</v>
+      <c r="J23" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="36"/>
+        <v>154</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="75"/>
       <c r="C24" s="5" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>145</v>
+      <c r="F24" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>451</v>
+        <v>157</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>159</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="36"/>
+        <v>161</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="75"/>
       <c r="C25" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="76"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="36"/>
       <c r="C26" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>39</v>
+        <v>167</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="5" t="s">
-        <v>156</v>
+      <c r="F26" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>157</v>
@@ -5529,29 +5635,26 @@
         <v>159</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="76"/>
+    </row>
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="36"/>
       <c r="C27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>39</v>
+        <v>171</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>157</v>
@@ -5562,30 +5665,28 @@
       <c r="I27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>174</v>
+      <c r="J27" s="21"/>
+      <c r="K27" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="36"/>
+        <v>176</v>
+      </c>
+      <c r="B28" s="74"/>
       <c r="C28" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>168</v>
+      <c r="E28" s="32"/>
+      <c r="F28" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>157</v>
@@ -5596,1059 +5697,814 @@
       <c r="I28" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28" s="21"/>
+      <c r="K28" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="36"/>
+        <v>180</v>
+      </c>
+      <c r="B29" s="83"/>
       <c r="C29" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
+        <v>181</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>157</v>
+        <v>180</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="75"/>
+        <v>59</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="80"/>
       <c r="C30" s="5" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="K30" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="86"/>
+        <v>192</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="80"/>
       <c r="C31" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>39</v>
+        <v>198</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>183</v>
+        <v>197</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="82"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="84"/>
       <c r="C32" s="5" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>194</v>
+      <c r="F32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="82"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="84"/>
       <c r="C33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>197</v>
+        <v>214</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34" s="87"/>
+        <v>221</v>
+      </c>
+      <c r="B34" s="83"/>
       <c r="C34" s="5" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>207</v>
+        <v>225</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>211</v>
+        <v>453</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="87"/>
+        <v>227</v>
+      </c>
+      <c r="B35" s="83"/>
       <c r="C35" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>213</v>
+        <v>228</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K35" s="30" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="86"/>
+        <v>232</v>
+      </c>
+      <c r="B36" s="83"/>
       <c r="C36" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>13</v>
+        <v>233</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>459</v>
+      <c r="J36" s="33" t="s">
+        <v>236</v>
       </c>
       <c r="K36" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="37" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="85"/>
+      <c r="C37" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="L37" s="40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="37" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="85"/>
+      <c r="C38" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="37" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="85"/>
+      <c r="C39" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="51" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="86"/>
+      <c r="C41" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="37" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="J39" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="K39" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="L39" s="40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="37" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="J40" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="K40" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="37" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="K41" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="L41" s="40" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B42" s="81"/>
+      <c r="J41" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="K41" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="87"/>
       <c r="C42" s="5" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>263</v>
+      <c r="E42" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H42" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" s="84"/>
+      <c r="C43" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="K42" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="51" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="K43" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="L43" s="50" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" s="90"/>
+        <v>294</v>
+      </c>
+      <c r="B44" s="83"/>
       <c r="C44" s="5" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="53" t="s">
-        <v>280</v>
-      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>283</v>
+        <v>294</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>454</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="K44" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="5" t="s">
-        <v>287</v>
+        <v>299</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="84"/>
+      <c r="C45" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>290</v>
+        <v>300</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>292</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="J45" s="21"/>
       <c r="K45" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="L45" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="86"/>
+        <v>307</v>
+      </c>
+      <c r="B46" s="84"/>
       <c r="C46" s="5" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="5" t="s">
-        <v>294</v>
+      <c r="F46" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H46" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="B47" s="88"/>
+      <c r="C47" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="91" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B49" s="73"/>
+      <c r="C49" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="73"/>
+      <c r="F49" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G49" s="87" t="s">
+        <v>463</v>
+      </c>
+      <c r="H49" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I49" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="L46" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="J49" s="93" t="s">
+        <v>462</v>
+      </c>
+      <c r="K49" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="L49" s="92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="91" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B50" s="73"/>
+      <c r="C50" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D50" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H47" s="4" t="s">
+      <c r="E50" s="73"/>
+      <c r="F50" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G50" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="L48" s="31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="K51" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="63" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
-        <v>334</v>
-      </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="62"/>
-      <c r="L52" s="64" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="94" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D53" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="74"/>
-      <c r="F53" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G53" s="90" t="s">
-        <v>469</v>
-      </c>
-      <c r="H53" s="90" t="s">
+      <c r="J50" s="93"/>
+      <c r="K50" s="91" t="s">
         <v>466</v>
       </c>
-      <c r="I53" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="96" t="s">
-        <v>468</v>
-      </c>
-      <c r="K53" s="94" t="s">
+      <c r="L50" s="92" t="s">
         <v>467</v>
       </c>
-      <c r="L53" s="95" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="94" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B54" s="74"/>
-      <c r="C54" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="D54" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="G54" s="90" t="s">
-        <v>478</v>
-      </c>
-      <c r="H54" s="90" t="s">
-        <v>479</v>
-      </c>
-      <c r="I54" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="J54" s="96"/>
-      <c r="K54" s="94" t="s">
-        <v>481</v>
-      </c>
-      <c r="L54" s="95" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="94" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B55" s="74"/>
-      <c r="C55" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="G55" s="90" t="s">
-        <v>492</v>
-      </c>
-      <c r="H55" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="J55" s="96"/>
-      <c r="K55" s="94" t="s">
-        <v>493</v>
-      </c>
-      <c r="L55" s="95" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="94" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B56" s="74"/>
-      <c r="C56" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="D56" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G56" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="H56" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="J56" s="96"/>
-      <c r="K56" s="94" t="s">
-        <v>472</v>
-      </c>
-      <c r="L56" s="95" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="85" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>458</v>
-      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="82"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="K9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L9" r:id="rId6" display="https://medium.com/@yzhua3/leetcode-majority-element-ii-f411b52b905a" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="K10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="K12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K13" r:id="rId10" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Left%20Rotation_Solution_1.java_x000a_" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="K14" r:id="rId11" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Rotate%20Right_Solution_1.java_x000a_" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="K15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L17" r:id="rId13" display="https://www.geeksforgeeks.org/minimum-swaps-required-group-1s-together/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="K17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="K19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K20" r:id="rId19" display="https://github.com/Learner-max/DataStructures/blob/main/Two%20Repeating%20Element%20in%20Array%20_Solution%231.java_x000a_" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L21" r:id="rId20" display="https://www.youtube.com/watch?v=aMsSF1Il3IY_x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K21" r:id="rId21" display="https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%231.java_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K23" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L24" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K24" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L25" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K25" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L26" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K28" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L29" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K27" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L31" r:id="rId37" display="https://www.geeksforgeeks.org/find-number-of-triangles-possible/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L32" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K32" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L33" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K33" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L34" r:id="rId43" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K34" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K35" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="L35" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L36" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K36" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C37" r:id="rId49" display="https://www.geeksforgeeks.org/sort-array-wave-form-2/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L37" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K37" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="L38" r:id="rId52" display="https://leetcode.com/problems/next-greater-element-iii/submissions/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K38" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L39" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K39" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L40" r:id="rId56" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L41" r:id="rId57" display="https://www.youtube.com/watch?v=awxaRgUB4Kw_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K40" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K41" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L42" r:id="rId60" display="https://www.youtube.com/watch?v=L_fIn5TM3mM" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K42" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="L43" r:id="rId62" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K43" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L44" r:id="rId64" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K44" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K45" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L46" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K46" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L47" r:id="rId69" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K47" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K48" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L51" r:id="rId72" display="https://www.youtube.com/watch?v=4WmTRFZilj8" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K51" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="L50" r:id="rId74" display="https://www.youtube.com/watch?v=oTfPJKGEHcc" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="L52" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="L6" r:id="rId76" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
-    <hyperlink ref="C7" r:id="rId77" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
-    <hyperlink ref="M13" r:id="rId78" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
-    <hyperlink ref="L22" r:id="rId79" xr:uid="{466A3819-F426-4D63-83F0-790B9AD18264}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId4" display="https://medium.com/@yzhua3/leetcode-majority-element-ii-f411b52b905a" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId8" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Left%20Rotation_Solution_1.java_x000a_" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId9" display="https://github.com/Learner-max/DataStructures/blob/main/Array%20Rotate%20Right_Solution_1.java_x000a_" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L15" r:id="rId11" display="https://www.geeksforgeeks.org/minimum-swaps-required-group-1s-together/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K18" r:id="rId17" display="https://github.com/Learner-max/DataStructures/blob/main/Two%20Repeating%20Element%20in%20Array%20_Solution%231.java_x000a_" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L19" r:id="rId18" display="https://www.youtube.com/watch?v=aMsSF1Il3IY_x000a_" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K19" r:id="rId19" display="https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%231.java_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K21" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K22" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L23" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K23" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L24" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K24" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L25" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K26" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K27" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L27" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K25" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L29" r:id="rId35" display="https://www.geeksforgeeks.org/find-number-of-triangles-possible/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K29" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L30" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K30" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L31" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K31" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L32" r:id="rId41" display="https://leetcode.com/problems/intersection-of-two-arrays/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K32" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K33" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L33" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L34" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K34" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C35" r:id="rId47" display="https://www.geeksforgeeks.org/sort-array-wave-form-2/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L35" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L36" r:id="rId50" display="https://leetcode.com/problems/next-greater-element-iii/submissions/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L37" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L38" r:id="rId54" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L39" r:id="rId55" display="https://www.youtube.com/watch?v=awxaRgUB4Kw_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K39" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L40" r:id="rId58" display="https://www.youtube.com/watch?v=L_fIn5TM3mM" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K40" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L41" r:id="rId60" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K41" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L42" r:id="rId62" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K42" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K43" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L44" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L45" r:id="rId67" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K45" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K46" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L4" r:id="rId70" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
+    <hyperlink ref="C5" r:id="rId71" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
+    <hyperlink ref="M11" r:id="rId72" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
+    <hyperlink ref="L20" r:id="rId73" xr:uid="{466A3819-F426-4D63-83F0-790B9AD18264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
-  <drawing r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
+  <drawing r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -6656,7 +6512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -6666,21 +6522,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="81"/>
     </row>
     <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>453</v>
+      <c r="A3" s="81" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A4" s="81" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -6690,6 +6546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6703,33 +6573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B36D5-D3E7-4D26-B6BF-4691E0D5A414}">
   <dimension ref="A6:A12"/>
   <sheetViews>
@@ -6743,38 +6587,38 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="94" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="94" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6784,32 +6628,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5BC23-FAF0-41AF-B3E7-457CD7E2F189}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="20" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="74.7109375" customWidth="1"/>
+    <col min="11" max="11" width="100.42578125" customWidth="1"/>
+    <col min="12" max="12" width="86.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -6843,7 +6688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
@@ -6851,8 +6696,331 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="91" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>491</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>492</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="91" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G7" s="87" t="s">
+        <v>472</v>
+      </c>
+      <c r="H7" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="93"/>
+      <c r="K7" s="91" t="s">
+        <v>475</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="91" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="G8" s="87" t="s">
+        <v>486</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="91" t="s">
+        <v>487</v>
+      </c>
+      <c r="L8" s="92" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L6" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/ffd66b6a0bf7cefb9987fa455974b6ea5695709e/1#" xr:uid="{E08A1BA5-729D-4D0B-B74F-3226B0D4E4CB}"/>
+    <hyperlink ref="K6" r:id="rId2" xr:uid="{C0A737FC-AE22-4627-8720-6B2E41B85276}"/>
+    <hyperlink ref="L9" r:id="rId3" display="https://www.youtube.com/watch?v=4WmTRFZilj8" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L10" r:id="rId5" display="https://www.youtube.com/watch?v=oTfPJKGEHcc" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K12" r:id="rId7" display="https://leetcode.com/problems/find-smallest-letter-greater-than-target/submissions/_x000a_" xr:uid="{9ABB4DE0-1BF9-4194-B3E9-6BC30B963B17}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6861,7 +7029,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -6885,7 +7053,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -6940,7 +7108,7 @@
       <c r="A3" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="5" t="s">
         <v>337</v>
       </c>
@@ -6973,7 +7141,7 @@
       <c r="A4" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="5" t="s">
         <v>346</v>
       </c>
@@ -7003,7 +7171,7 @@
       <c r="A5" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="5" t="s">
         <v>350</v>
       </c>
@@ -7036,7 +7204,7 @@
       <c r="A6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
       </c>
@@ -7063,17 +7231,17 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="65" t="s">
         <v>363</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -7096,10 +7264,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="17" t="s">
         <v>372</v>
       </c>
@@ -7118,7 +7286,7 @@
       <c r="I8" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="66" t="s">
         <v>377</v>
       </c>
       <c r="K8" s="30" t="s">
@@ -7132,14 +7300,14 @@
       <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="5" t="s">
         <v>382</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="67" t="s">
         <v>381</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -7168,7 +7336,7 @@
       <c r="A10" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="93"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="24" t="s">
         <v>389</v>
       </c>
@@ -7187,13 +7355,13 @@
       <c r="I10" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="68" t="s">
         <v>394</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="69" t="s">
         <v>393</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="L10" s="69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7257,7 +7425,7 @@
         <v>354</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>405</v>
@@ -7270,7 +7438,7 @@
       <c r="A13" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B13" s="66"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="5" t="s">
         <v>411</v>
       </c>
@@ -7361,7 +7529,7 @@
       </c>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:13" s="73" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>421</v>
       </c>
@@ -7408,7 +7576,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7460,21 +7628,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="101" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:12" s="98" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7486,31 +7654,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D84AC1-E183-4013-B0BF-457B6B1DDD6C}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:12" s="62" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="57" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="61"/>
+      <c r="L5" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7524,7 +7707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7538,7 +7721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7550,4 +7733,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E53053-94C7-4C52-B176-7C9C9ECCCD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB7001-F2B2-46EA-88BA-F9690BD6D39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="532">
   <si>
     <t>Problem</t>
   </si>
@@ -3665,6 +3665,92 @@
   <si>
     <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/submissions/
 https://github.com/Learner-max/DataStructures/blob/main/Arrays/NextGreaterElement.java</t>
+  </si>
+  <si>
+    <t>Find the index of first 1 in an infinite sorted array of 0s and 1s</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-index-first-1-infinite-sorted-array-0s-1s/
+https://www.youtube.com/watch?v=8x6dmO6XW8k&amp;list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2&amp;index=14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Learner-max/DataStructures/blob/main/Arrays/IndexOfFirst1.java
+</t>
+  </si>
+  <si>
+    <t>Peak Element</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/PeakElement.java</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element/
+https://www.youtube.com/watch?v=OINnBJTRrMU&amp;list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2&amp;index=17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April </t>
+  </si>
+  <si>
+    <t>Maithli</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Sinchinna</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Till 14 June</t>
+  </si>
+  <si>
+    <t>Search In Sorted Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(n)
+</t>
+  </si>
+  <si>
+    <t>2D Matrix</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/Search%20In%20Sorted%20Matrix.java</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VS0BcOiKaGI&amp;list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2&amp;index=20
+https://www.geeksforgeeks.org/search-in-row-wise-and-column-wise-sorted-matrix/</t>
+  </si>
+  <si>
+    <t>Allocate minimum number of pages</t>
+  </si>
+  <si>
+    <t>Given number of pages in n different books and m students. The books are arranged in ascending order of number of pages. Every student is assigned to read some consecutive books. The task is to assign books in such a way that the maximum number of pages assigned to a student is minimum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/allocate-minimum-number-pages/
+https://www.youtube.com/watch?v=2JSQIhPcHQg&amp;list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2&amp;index=21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O(nlogn)
+</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/AllocationOfPages.java</t>
+  </si>
+  <si>
+    <t>Similar Question:
+https://leetcode.com/problems/split-array-largest-sum/</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uPqPDPjtPX4</t>
   </si>
 </sst>
 </file>
@@ -4095,7 +4181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4144,9 +4230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4365,6 +4448,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4373,6 +4459,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4459,13 +4554,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1381126</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4914900</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>895350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4771,11 +4866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,7 +4884,7 @@
     <col min="7" max="7" width="33.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" style="12" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="77.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="77.42578125" style="19" customWidth="1"/>
     <col min="11" max="11" width="145.42578125" customWidth="1"/>
     <col min="12" max="12" width="93.42578125" customWidth="1"/>
     <col min="13" max="13" width="76.7109375" customWidth="1"/>
@@ -4799,7 +4894,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -4823,7 +4918,7 @@
       <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -4833,8 +4928,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:13" s="55" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4842,11 +4937,11 @@
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -4870,19 +4965,19 @@
       <c r="K3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="4"/>
@@ -4904,19 +4999,19 @@
       <c r="K4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="86" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="4"/>
@@ -4930,19 +5025,19 @@
       <c r="K5" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="4"/>
@@ -4972,11 +5067,11 @@
       <c r="A7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="4"/>
@@ -4989,7 +5084,7 @@
       <c r="H7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="76" t="s">
         <v>435</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -5006,11 +5101,11 @@
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="4"/>
@@ -5040,7 +5135,7 @@
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
@@ -5074,7 +5169,7 @@
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
@@ -5105,7 +5200,7 @@
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="5" t="s">
         <v>77</v>
       </c>
@@ -5128,13 +5223,13 @@
       <c r="J11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="M11" s="78" t="s">
+      <c r="M11" s="77" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5142,7 +5237,7 @@
       <c r="A12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
@@ -5165,7 +5260,7 @@
       <c r="J12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>81</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -5176,7 +5271,7 @@
       <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="5" t="s">
         <v>88</v>
       </c>
@@ -5210,7 +5305,7 @@
       <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="5" t="s">
         <v>95</v>
       </c>
@@ -5241,11 +5336,11 @@
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>100</v>
       </c>
       <c r="E15" s="4"/>
@@ -5267,7 +5362,7 @@
       <c r="K15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5275,7 +5370,7 @@
       <c r="A16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="5" t="s">
         <v>109</v>
       </c>
@@ -5298,7 +5393,7 @@
       <c r="J16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="21" t="s">
         <v>108</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -5309,7 +5404,7 @@
       <c r="A17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="79"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
@@ -5340,11 +5435,11 @@
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="36"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="4"/>
@@ -5363,10 +5458,10 @@
       <c r="J18" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5374,11 +5469,11 @@
       <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -5399,10 +5494,10 @@
       <c r="J19" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5410,7 +5505,7 @@
       <c r="A20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
         <v>133</v>
       </c>
@@ -5436,43 +5531,43 @@
       <c r="K20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="100"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5480,11 +5575,11 @@
       <c r="A22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="4"/>
@@ -5500,11 +5595,11 @@
       <c r="I22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="21" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5512,11 +5607,11 @@
       <c r="A23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4"/>
@@ -5543,14 +5638,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="75"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="4"/>
@@ -5577,14 +5672,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4"/>
@@ -5614,7 +5709,7 @@
       <c r="A26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="5" t="s">
         <v>167</v>
       </c>
@@ -5645,7 +5740,7 @@
       <c r="A27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="5" t="s">
         <v>171</v>
       </c>
@@ -5665,8 +5760,8 @@
       <c r="I27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="29" t="s">
+      <c r="J27" s="20"/>
+      <c r="K27" s="28" t="s">
         <v>172</v>
       </c>
       <c r="L27" s="10" t="s">
@@ -5677,14 +5772,14 @@
       <c r="A28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="5" t="s">
         <v>177</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="5" t="s">
         <v>176</v>
       </c>
@@ -5697,11 +5792,11 @@
       <c r="I28" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="30" t="s">
+      <c r="J28" s="20"/>
+      <c r="K28" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="L28" s="30" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5709,11 +5804,11 @@
       <c r="A29" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B29" s="83"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="4"/>
@@ -5732,10 +5827,10 @@
       <c r="J29" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L29" s="21" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5743,7 +5838,7 @@
       <c r="A30" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="5" t="s">
         <v>188</v>
       </c>
@@ -5766,10 +5861,10 @@
       <c r="J30" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="K30" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="L30" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5777,7 +5872,7 @@
       <c r="A31" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="5" t="s">
         <v>198</v>
       </c>
@@ -5800,10 +5895,10 @@
       <c r="J31" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L31" s="21" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5811,7 +5906,7 @@
       <c r="A32" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="84"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="5" t="s">
         <v>205</v>
       </c>
@@ -5834,10 +5929,10 @@
       <c r="J32" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="21" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5845,14 +5940,14 @@
       <c r="A33" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="84"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>215</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -5870,10 +5965,10 @@
       <c r="J33" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="29" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5881,7 +5976,7 @@
       <c r="A34" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B34" s="83"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="5" t="s">
         <v>222</v>
       </c>
@@ -5904,10 +5999,10 @@
       <c r="J34" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5915,7 +6010,7 @@
       <c r="A35" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="83"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="5" t="s">
         <v>228</v>
       </c>
@@ -5938,10 +6033,10 @@
       <c r="J35" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="29" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5949,11 +6044,11 @@
       <c r="A36" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="83"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="4"/>
@@ -5969,119 +6064,119 @@
       <c r="I36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="K36" s="30" t="s">
+      <c r="K36" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="37" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+    <row r="37" spans="1:12" s="36" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="42" t="s">
+      <c r="B37" s="84"/>
+      <c r="C37" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G37" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="L37" s="40" t="s">
+      <c r="L37" s="39" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:12" s="36" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="42" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="44" t="s">
+      <c r="E38" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="G38" s="42" t="s">
+      <c r="G38" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="J38" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="37" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:12" s="36" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G39" s="38" t="s">
+      <c r="G39" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="J39" s="41" t="s">
+      <c r="J39" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="L39" s="40" t="s">
+      <c r="L39" s="39" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6089,14 +6184,14 @@
       <c r="A40" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B40" s="79"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="45" t="s">
         <v>263</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -6114,44 +6209,44 @@
       <c r="J40" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="51" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+    <row r="41" spans="1:12" s="50" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B41" s="86"/>
-      <c r="C41" s="48" t="s">
+      <c r="B41" s="85"/>
+      <c r="C41" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="H41" s="48" t="s">
+      <c r="H41" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="52" t="s">
+      <c r="J41" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="K41" s="49" t="s">
+      <c r="K41" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="49" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6159,14 +6254,14 @@
       <c r="A42" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B42" s="87"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>280</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -6184,10 +6279,10 @@
       <c r="J42" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="21" t="s">
         <v>279</v>
       </c>
     </row>
@@ -6195,11 +6290,11 @@
       <c r="A43" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="84"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="4"/>
@@ -6218,10 +6313,10 @@
       <c r="J43" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="K43" s="30" t="s">
+      <c r="K43" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="L43" s="31" t="s">
+      <c r="L43" s="30" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6229,11 +6324,11 @@
       <c r="A44" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B44" s="83"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="4"/>
@@ -6252,10 +6347,10 @@
       <c r="J44" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="29" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6263,11 +6358,11 @@
       <c r="A45" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B45" s="84"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
@@ -6283,11 +6378,11 @@
       <c r="I45" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="30" t="s">
+      <c r="J45" s="20"/>
+      <c r="K45" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="L45" s="22" t="s">
+      <c r="L45" s="21" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6295,11 +6390,11 @@
       <c r="A46" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B46" s="84"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4"/>
@@ -6315,27 +6410,27 @@
       <c r="I46" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="30" t="s">
+      <c r="J46" s="20"/>
+      <c r="K46" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="L46" s="31" t="s">
+      <c r="L46" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="87"/>
+      <c r="C47" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="46" t="s">
         <v>140</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="60" t="s">
+      <c r="F47" s="59" t="s">
         <v>315</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -6357,74 +6452,82 @@
         <v>455</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="91" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="48" spans="1:12" s="90" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B49" s="73"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D48" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="72"/>
+      <c r="F48" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G48" s="86" t="s">
+        <v>463</v>
+      </c>
+      <c r="H48" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="I48" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="K48" s="90" t="s">
+        <v>461</v>
+      </c>
+      <c r="L48" s="91" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="90" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B49" s="72"/>
       <c r="C49" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D49" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="73"/>
-      <c r="F49" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G49" s="87" t="s">
-        <v>463</v>
-      </c>
-      <c r="H49" s="87" t="s">
-        <v>460</v>
-      </c>
-      <c r="I49" s="73" t="s">
+        <v>465</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G49" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="J49" s="93" t="s">
-        <v>462</v>
-      </c>
-      <c r="K49" s="91" t="s">
-        <v>461</v>
-      </c>
-      <c r="L49" s="92" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="91" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B50" s="73"/>
-      <c r="C50" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="D50" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="73"/>
-      <c r="F50" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="G50" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="I50" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" s="93"/>
-      <c r="K50" s="91" t="s">
+      <c r="J49" s="92"/>
+      <c r="K49" s="90" t="s">
         <v>466</v>
       </c>
-      <c r="L50" s="92" t="s">
+      <c r="L49" s="91" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6522,15 +6625,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="80"/>
     </row>
     <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>452</v>
       </c>
     </row>
@@ -6547,14 +6650,93 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="103">
+        <v>7</v>
+      </c>
+      <c r="B4" s="103"/>
+      <c r="C4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="103">
+        <v>17</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="103"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="103">
+        <v>6</v>
+      </c>
+      <c r="B8" s="103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="104" t="s">
+        <v>512</v>
+      </c>
+      <c r="B11" s="104">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="104" t="s">
+        <v>514</v>
+      </c>
+      <c r="B12" s="104">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B13" s="104">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6587,37 +6769,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="93" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="93" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="93" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="93" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="93" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6628,16 +6810,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5BC23-FAF0-41AF-B3E7-457CD7E2F189}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="20" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" hidden="1" customWidth="1"/>
@@ -6648,13 +6830,14 @@
     <col min="10" max="10" width="74.7109375" customWidth="1"/>
     <col min="11" max="11" width="100.42578125" customWidth="1"/>
     <col min="12" max="12" width="86.42578125" customWidth="1"/>
+    <col min="13" max="13" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -6678,7 +6861,7 @@
       <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -6688,11 +6871,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="56" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:13" s="55" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6700,7 +6883,7 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6719,7 +6902,7 @@
       <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -6736,10 +6919,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
@@ -6758,7 +6941,7 @@
       <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="102" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -6768,32 +6951,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="90" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="86" t="s">
         <v>491</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="92" t="s">
         <v>492</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="91" t="s">
         <v>493</v>
       </c>
     </row>
@@ -6813,81 +6996,81 @@
       <c r="G6" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="30" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="91" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="90" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="86" t="s">
         <v>472</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="I7" s="73" t="s">
+      <c r="I7" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="91" t="s">
+      <c r="J7" s="92"/>
+      <c r="K7" s="90" t="s">
         <v>475</v>
       </c>
-      <c r="L7" s="92" t="s">
+      <c r="L7" s="91" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="91" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="90" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="73"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="86" t="s">
         <v>486</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="91" t="s">
+      <c r="J8" s="92"/>
+      <c r="K8" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="L8" s="92" t="s">
+      <c r="L8" s="91" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6895,11 +7078,11 @@
       <c r="A9" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4"/>
@@ -6918,10 +7101,10 @@
       <c r="J9" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6929,11 +7112,11 @@
       <c r="A10" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4"/>
@@ -6949,11 +7132,11 @@
       <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7002,11 +7185,130 @@
       <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="30" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7018,9 +7320,11 @@
     <hyperlink ref="L10" r:id="rId5" display="https://www.youtube.com/watch?v=oTfPJKGEHcc" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K12" r:id="rId7" display="https://leetcode.com/problems/find-smallest-letter-greater-than-target/submissions/_x000a_" xr:uid="{9ABB4DE0-1BF9-4194-B3E9-6BC30B963B17}"/>
+    <hyperlink ref="K13" r:id="rId8" xr:uid="{95898CA8-79EA-4FCC-8058-9F397134CDAA}"/>
+    <hyperlink ref="K15" r:id="rId9" xr:uid="{263E6CEB-F740-4E5A-AA80-D257F7D3DF13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -7053,7 +7357,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -7077,7 +7381,7 @@
       <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -7087,32 +7391,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="54" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:13" s="53" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -7127,13 +7431,13 @@
       <c r="I3" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="21" t="s">
         <v>340</v>
       </c>
     </row>
@@ -7141,7 +7445,7 @@
       <c r="A4" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="5" t="s">
         <v>346</v>
       </c>
@@ -7160,10 +7464,10 @@
       <c r="I4" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7171,7 +7475,7 @@
       <c r="A5" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="5" t="s">
         <v>350</v>
       </c>
@@ -7190,13 +7494,13 @@
       <c r="I5" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7204,7 +7508,7 @@
       <c r="A6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="5" t="s">
         <v>358</v>
       </c>
@@ -7223,25 +7527,25 @@
       <c r="I6" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="64" t="s">
         <v>363</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -7253,25 +7557,25 @@
       <c r="I7" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -7286,13 +7590,13 @@
       <c r="I8" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="J8" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>374</v>
       </c>
     </row>
@@ -7300,68 +7604,68 @@
       <c r="A9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="66" t="s">
         <v>381</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>384</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="21" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="26" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="24" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="67" t="s">
         <v>394</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="68" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7373,7 +7677,7 @@
       <c r="C11" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -7385,16 +7689,16 @@
       <c r="H11" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>395</v>
       </c>
     </row>
@@ -7409,7 +7713,7 @@
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>404</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -7421,16 +7725,16 @@
       <c r="H12" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="J12" s="31" t="s">
+      <c r="J12" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7438,11 +7742,11 @@
       <c r="A13" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -7454,16 +7758,16 @@
       <c r="H13" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7474,7 +7778,7 @@
       <c r="C14" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -7486,16 +7790,16 @@
       <c r="H14" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7506,7 +7810,7 @@
       <c r="C15" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -7518,25 +7822,25 @@
       <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="46" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7618,7 +7922,7 @@
       <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -7628,21 +7932,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="98" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:12" s="97" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7666,22 +7970,22 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" s="62" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:12" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="61"/>
-      <c r="L5" s="63" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="60"/>
+      <c r="L5" s="62" t="s">
         <v>333</v>
       </c>
     </row>

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB7001-F2B2-46EA-88BA-F9690BD6D39C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA868B-785F-4286-8D42-5D2ED8958C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,12 +766,6 @@
 Could you do it without extra space and in O(n) runtime?</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=aMsSF1Il3IY
-https://www.youtube.com/watch?v=GeHOlt_QYz8
-https://leetcode.com/problems/find-all-duplicates-in-an-array/
-https://www.youtube.com/watch?v=iiYc32-4ZJY</t>
-  </si>
-  <si>
     <t>https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%231.java
 https://github.com/Learner-max/DataStructures/blob/main/Find%20All%20Duplicates%20in%20an%20Array_Solution%232.java</t>
   </si>
@@ -3181,57 +3175,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Using Array as an Index:
-Here each array element is 1&lt;=arr[i]&lt;=n(arr.length) 
-or  0&lt;=arr[i]&lt;=n-1 ** So each array elemnt acts as a valid array index.[after substracting 1 from it]
-Here for every arr[i] we flip the sign of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (index= arr[arr[i]]*-1 ) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arr[index]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-if while navigating array we again encounter arr[i]  then element at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arr[index] should be negative , hence representing repeated element/duplicate element</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/equilibrium-index-of-an-array/</t>
   </si>
   <si>
@@ -3752,12 +3695,53 @@
   <si>
     <t>https://www.youtube.com/watch?v=uPqPDPjtPX4</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.youtube.com/watch?v=aMsSF1Il3IY
+https://www.youtube.com/watch?v=GeHOlt_QYz8
+https://leetcode.com/problems/find-all-duplicates-in-an-array/
+https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.geeksforgeeks.org/duplicates-in-an-array-in-on-time-and-by-using-o1-extra-space-set-3/?ref=rp
+https://www.geeksforgeeks.org/duplicates-array-using-o1-extra-space-set-2/?ref=rp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=iiYc32-4ZJY</t>
+    </r>
+  </si>
+  <si>
+    <t>Traverse the given array from start to end.
+For every element in the array increment the arr[i]%n‘th element by n.
+Now traverse the array again and print all those indexes i for which arr[i]/n is greater than 1. Which guarantees that the number n has been added to that index
+This approach works because all elements are in the range from 0 to n-1 and arr[i] would be greater than n only if a value “i” has appeared more than once.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4023,6 +4007,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -4436,6 +4428,27 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4447,27 +4460,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4478,10 +4470,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FF5DF95D"/>
       <color rgb="FFD4FECE"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF9900CC"/>
@@ -4869,8 +4861,8 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4895,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -4966,7 +4958,7 @@
         <v>36</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -5000,33 +4992,33 @@
         <v>43</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,12 +5052,12 @@
         <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="14" t="s">
@@ -5085,7 +5077,7 @@
         <v>54</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>56</v>
@@ -5094,7 +5086,7 @@
         <v>55</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5128,7 +5120,7 @@
         <v>63</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -5156,13 +5148,13 @@
         <v>68</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>74</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5227,10 +5219,10 @@
         <v>80</v>
       </c>
       <c r="L11" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="M11" s="77" t="s">
         <v>440</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5264,7 +5256,7 @@
         <v>81</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -5298,7 +5290,7 @@
         <v>93</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5397,7 +5389,7 @@
         <v>108</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5448,7 @@
         <v>124</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>125</v>
@@ -5491,30 +5483,30 @@
       <c r="I19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>446</v>
+      <c r="J19" s="27" t="s">
+        <v>531</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>129</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>53</v>
@@ -5526,31 +5518,31 @@
         <v>59</v>
       </c>
       <c r="J20" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="29" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="96"/>
+      <c r="C21" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="L20" s="29" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="D21" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="23" t="s">
+      <c r="E21" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>136</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>137</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>53</v>
@@ -5562,464 +5554,464 @@
         <v>59</v>
       </c>
       <c r="J21" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="74"/>
       <c r="C24" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="74"/>
       <c r="C25" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J25" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="J26" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="73"/>
       <c r="C28" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="82"/>
       <c r="C29" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="79"/>
       <c r="C30" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="79"/>
       <c r="C31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="83"/>
       <c r="C32" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" s="83"/>
       <c r="C33" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K33" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" s="29" t="s">
         <v>216</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" s="82"/>
       <c r="C34" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B35" s="82"/>
       <c r="C35" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>53</v>
@@ -6031,29 +6023,29 @@
         <v>59</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" s="82"/>
       <c r="C36" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>53</v>
@@ -6065,29 +6057,29 @@
         <v>59</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="36" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="84"/>
       <c r="C37" s="41" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>53</v>
@@ -6096,410 +6088,410 @@
         <v>54</v>
       </c>
       <c r="I37" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="J37" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="J37" s="40" t="s">
-        <v>243</v>
-      </c>
       <c r="K37" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L37" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="84"/>
       <c r="C38" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>54</v>
       </c>
       <c r="I38" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J38" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="K38" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="L38" s="39" t="s">
         <v>249</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="84"/>
       <c r="C39" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H39" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J39" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="I39" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="J39" s="40" t="s">
+      <c r="K39" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="K39" s="38" t="s">
-        <v>260</v>
-      </c>
       <c r="L39" s="39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="78"/>
       <c r="C40" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="K40" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="50" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="85"/>
       <c r="C41" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I41" s="33" t="s">
         <v>59</v>
       </c>
       <c r="J41" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K41" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="L41" s="49" t="s">
         <v>271</v>
-      </c>
-      <c r="L41" s="49" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B42" s="86"/>
       <c r="C42" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G42" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L42" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="83"/>
       <c r="C43" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="K43" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="L43" s="30" t="s">
         <v>288</v>
-      </c>
-      <c r="L43" s="30" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B44" s="82"/>
       <c r="C44" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L44" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" s="83"/>
       <c r="C45" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" s="21" t="s">
         <v>305</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B46" s="83"/>
       <c r="C46" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="I46" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" s="87"/>
       <c r="C47" s="59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="J47" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>322</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="90" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B48" s="72"/>
       <c r="C48" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G48" s="86" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H48" s="86" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I48" s="72" t="s">
         <v>59</v>
       </c>
       <c r="J48" s="92" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K48" s="90" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L48" s="91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="90" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B49" s="72"/>
       <c r="C49" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D49" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="72"/>
       <c r="F49" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G49" s="86" t="s">
         <v>53</v>
@@ -6512,18 +6504,18 @@
       </c>
       <c r="J49" s="92"/>
       <c r="K49" s="90" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L49" s="91" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="C50" s="98" t="s">
-        <v>531</v>
+        <v>528</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -6629,17 +6621,17 @@
     </row>
     <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
-        <v>450</v>
+      <c r="A5" s="97" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -6663,77 +6655,77 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="103">
+      <c r="A4" s="99">
         <v>7</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="99"/>
       <c r="C4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="103">
+      <c r="A6" s="99">
         <v>17</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="99"/>
       <c r="C6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>516</v>
-      </c>
-      <c r="B7" s="103"/>
+      <c r="A7" s="99" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="99"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="103">
+      <c r="A8" s="99">
         <v>6</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="99">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="100" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" s="100">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
         <v>512</v>
       </c>
-      <c r="B11" s="104">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>514</v>
-      </c>
-      <c r="B12" s="104">
+      <c r="B12" s="100">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B13" s="100">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B13" s="104">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6770,37 +6762,37 @@
   <sheetData>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -6838,7 +6830,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -6941,7 +6933,7 @@
       <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="98" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -6953,19 +6945,19 @@
     </row>
     <row r="5" spans="1:13" s="90" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="86" t="s">
         <v>489</v>
-      </c>
-      <c r="G5" s="86" t="s">
-        <v>491</v>
       </c>
       <c r="H5" s="86" t="s">
         <v>54</v>
@@ -6974,27 +6966,27 @@
         <v>18</v>
       </c>
       <c r="J5" s="92" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L5" s="91" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H6" s="86" t="s">
         <v>54</v>
@@ -7004,61 +6996,61 @@
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="90" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="86" t="s">
         <v>470</v>
       </c>
-      <c r="G7" s="86" t="s">
-        <v>472</v>
-      </c>
       <c r="H7" s="86" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I7" s="72" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="92"/>
       <c r="K7" s="90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L7" s="91" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="90" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B8" s="72"/>
       <c r="C8" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D8" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="72"/>
       <c r="F8" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" s="86" t="s">
         <v>484</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>486</v>
       </c>
       <c r="H8" s="86" t="s">
         <v>54</v>
@@ -7068,63 +7060,63 @@
       </c>
       <c r="J8" s="92"/>
       <c r="K8" s="90" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L8" s="91" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="83"/>
       <c r="C9" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>329</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="58"/>
       <c r="C10" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>54</v>
@@ -7134,24 +7126,24 @@
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>54</v>
@@ -7160,24 +7152,24 @@
         <v>59</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>54</v>
@@ -7186,24 +7178,24 @@
         <v>59</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>54</v>
@@ -7212,30 +7204,30 @@
         <v>59</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>54</v>
@@ -7244,56 +7236,56 @@
         <v>59</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="100" t="s">
+        <v>519</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="K15" s="29" t="s">
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="C16" s="17" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
-        <v>524</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="F16" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>54</v>
@@ -7302,13 +7294,13 @@
         <v>59</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -7358,7 +7350,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>0</v>
@@ -7393,7 +7385,7 @@
     </row>
     <row r="2" spans="1:13" s="53" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -7410,438 +7402,438 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B3" s="88"/>
       <c r="C3" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>339</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="83"/>
       <c r="C4" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>343</v>
-      </c>
       <c r="J4" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="K5" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>356</v>
-      </c>
       <c r="L5" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" s="83"/>
       <c r="C6" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="K7" s="29" t="s">
+      <c r="L7" s="21" t="s">
         <v>369</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>373</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J8" s="65" t="s">
-        <v>377</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B9" s="83"/>
       <c r="C9" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G9" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="I9" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="J9" s="30" t="s">
+      <c r="K9" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="L9" s="21" t="s">
         <v>386</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="25" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G10" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="68" t="s">
         <v>392</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>394</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>393</v>
-      </c>
       <c r="L10" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>401</v>
-      </c>
       <c r="K11" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>405</v>
-      </c>
       <c r="L12" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>414</v>
-      </c>
       <c r="L13" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="21" t="s">
         <v>416</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>427</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7932,21 +7924,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="97" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="96"/>
+    <row r="2" spans="1:12" s="104" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7972,11 +7964,11 @@
   <sheetData>
     <row r="5" spans="1:12" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
@@ -7986,7 +7978,7 @@
       <c r="I5" s="57"/>
       <c r="J5" s="60"/>
       <c r="L5" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA868B-785F-4286-8D42-5D2ED8958C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A0510-EB27-47D0-B861-B5A7A06E0390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="537">
   <si>
     <t>Problem</t>
   </si>
@@ -3736,12 +3736,29 @@
 Now traverse the array again and print all those indexes i for which arr[i]/n is greater than 1. Which guarantees that the number n has been added to that index
 This approach works because all elements are in the range from 0 to n-1 and arr[i] would be greater than n only if a value “i” has appeared more than once.</t>
   </si>
+  <si>
+    <t>Factorial Of a Large Number</t>
+  </si>
+  <si>
+    <t>Bit Manipulation In Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/factorial-large-number/
+https://www.youtube.com/watch?v=VCfZOe1oJHU
+https://practice.geeksforgeeks.org/problems/large-factorial4721/1#</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/FactorialOfLargeNumber.txt</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4015,8 +4032,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4107,8 +4133,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4168,12 +4200,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4266,34 +4307,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4400,9 +4418,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4428,9 +4443,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4460,6 +4472,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4470,11 +4501,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9966"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FFFF7C80"/>
       <color rgb="FF5DF95D"/>
       <color rgb="FFD4FECE"/>
-      <color rgb="FFFF9966"/>
       <color rgb="FFFF6600"/>
       <color rgb="FF9900CC"/>
     </mruColors>
@@ -4860,15 +4891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="12" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="12" hidden="1" customWidth="1"/>
@@ -4886,7 +4917,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="61" t="s">
         <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -4920,8 +4951,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="55" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:13" s="46" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4929,7 +4960,7 @@
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="75"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
@@ -4962,10 +4993,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
@@ -4996,10 +5027,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="76" t="s">
         <v>429</v>
       </c>
-      <c r="B5" s="75"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="5" t="s">
         <v>430</v>
       </c>
@@ -5022,10 +5053,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="5" t="s">
         <v>46</v>
       </c>
@@ -5059,7 +5090,7 @@
       <c r="A7" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="14" t="s">
         <v>51</v>
       </c>
@@ -5076,7 +5107,7 @@
       <c r="H7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="67" t="s">
         <v>434</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -5093,7 +5124,7 @@
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="14" t="s">
         <v>58</v>
       </c>
@@ -5127,7 +5158,7 @@
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
@@ -5161,7 +5192,7 @@
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
@@ -5192,7 +5223,7 @@
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="5" t="s">
         <v>77</v>
       </c>
@@ -5221,7 +5252,7 @@
       <c r="L11" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="M11" s="77" t="s">
+      <c r="M11" s="68" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5229,7 +5260,7 @@
       <c r="A12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5" t="s">
         <v>79</v>
       </c>
@@ -5263,7 +5294,7 @@
       <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="5" t="s">
         <v>88</v>
       </c>
@@ -5297,7 +5328,7 @@
       <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="5" t="s">
         <v>95</v>
       </c>
@@ -5328,7 +5359,7 @@
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="5" t="s">
         <v>99</v>
       </c>
@@ -5362,7 +5393,7 @@
       <c r="A16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5" t="s">
         <v>109</v>
       </c>
@@ -5396,7 +5427,7 @@
       <c r="A17" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="3" t="s">
         <v>115</v>
       </c>
@@ -5427,7 +5458,7 @@
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="5" t="s">
         <v>127</v>
       </c>
@@ -5461,7 +5492,7 @@
       <c r="A19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="79"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="5" t="s">
         <v>128</v>
       </c>
@@ -5497,7 +5528,7 @@
       <c r="A20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="5" t="s">
         <v>132</v>
       </c>
@@ -5528,10 +5559,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="96"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="23" t="s">
         <v>135</v>
       </c>
@@ -5567,7 +5598,7 @@
       <c r="A22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="5" t="s">
         <v>143</v>
       </c>
@@ -5599,7 +5630,7 @@
       <c r="A23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="5" t="s">
         <v>148</v>
       </c>
@@ -5633,7 +5664,7 @@
       <c r="A24" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="5" t="s">
         <v>154</v>
       </c>
@@ -5667,7 +5698,7 @@
       <c r="A25" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="74"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="5" t="s">
         <v>162</v>
       </c>
@@ -5701,7 +5732,7 @@
       <c r="A26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="5" t="s">
         <v>166</v>
       </c>
@@ -5732,7 +5763,7 @@
       <c r="A27" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="5" t="s">
         <v>170</v>
       </c>
@@ -5764,7 +5795,7 @@
       <c r="A28" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="73"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="5" t="s">
         <v>176</v>
       </c>
@@ -5796,7 +5827,7 @@
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="82"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="5" t="s">
         <v>180</v>
       </c>
@@ -5830,7 +5861,7 @@
       <c r="A30" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B30" s="79"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="5" t="s">
         <v>187</v>
       </c>
@@ -5864,7 +5895,7 @@
       <c r="A31" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B31" s="79"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="5" t="s">
         <v>197</v>
       </c>
@@ -5898,7 +5929,7 @@
       <c r="A32" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="83"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="5" t="s">
         <v>204</v>
       </c>
@@ -5932,7 +5963,7 @@
       <c r="A33" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="83"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="5" t="s">
         <v>213</v>
       </c>
@@ -5968,7 +5999,7 @@
       <c r="A34" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="82"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="5" t="s">
         <v>221</v>
       </c>
@@ -6002,7 +6033,7 @@
       <c r="A35" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="82"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="5" t="s">
         <v>227</v>
       </c>
@@ -6036,7 +6067,7 @@
       <c r="A36" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="5" t="s">
         <v>232</v>
       </c>
@@ -6066,154 +6097,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="36" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="36" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>244</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="H38" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="K38" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="36" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="K39" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="L39" s="39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="L40" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="50" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B41" s="85"/>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="75"/>
+      <c r="C41" s="38" t="s">
         <v>269</v>
       </c>
       <c r="D41" s="33" t="s">
@@ -6223,22 +6112,22 @@
       <c r="F41" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="G41" s="47" t="s">
+      <c r="G41" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="H41" s="47" t="s">
+      <c r="H41" s="38" t="s">
         <v>272</v>
       </c>
       <c r="I41" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="51" t="s">
+      <c r="J41" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="48" t="s">
+      <c r="K41" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="L41" s="49" t="s">
+      <c r="L41" s="40" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6246,14 +6135,14 @@
       <c r="A42" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B42" s="86"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="43" t="s">
         <v>279</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -6282,7 +6171,7 @@
       <c r="A43" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B43" s="83"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="5" t="s">
         <v>286</v>
       </c>
@@ -6316,7 +6205,7 @@
       <c r="A44" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="82"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="5" t="s">
         <v>294</v>
       </c>
@@ -6350,7 +6239,7 @@
       <c r="A45" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B45" s="83"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="4" t="s">
         <v>300</v>
       </c>
@@ -6382,7 +6271,7 @@
       <c r="A46" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="5" t="s">
         <v>308</v>
       </c>
@@ -6411,18 +6300,18 @@
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="59" t="s">
+      <c r="B47" s="77"/>
+      <c r="C47" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="37" t="s">
         <v>139</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="59" t="s">
+      <c r="F47" s="50" t="s">
         <v>314</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -6444,82 +6333,126 @@
         <v>453</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="90" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="80" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B48" s="72"/>
+      <c r="B48" s="63"/>
       <c r="C48" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="72"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="G48" s="86" t="s">
+      <c r="G48" s="76" t="s">
         <v>461</v>
       </c>
-      <c r="H48" s="86" t="s">
+      <c r="H48" s="76" t="s">
         <v>458</v>
       </c>
-      <c r="I48" s="72" t="s">
+      <c r="I48" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J48" s="92" t="s">
+      <c r="J48" s="82" t="s">
         <v>460</v>
       </c>
-      <c r="K48" s="90" t="s">
+      <c r="K48" s="80" t="s">
         <v>459</v>
       </c>
-      <c r="L48" s="91" t="s">
+      <c r="L48" s="81" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="90" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="80" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B49" s="72"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="72"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="G49" s="86" t="s">
+      <c r="G49" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="86" t="s">
+      <c r="H49" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="72" t="s">
+      <c r="I49" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J49" s="92"/>
-      <c r="K49" s="90" t="s">
+      <c r="J49" s="82"/>
+      <c r="K49" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="L49" s="91" t="s">
+      <c r="L49" s="81" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C50" s="94" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5" t="s">
         <v>529</v>
       </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="100" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="81"/>
+      <c r="A53" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6574,32 +6507,24 @@
     <hyperlink ref="K35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="L36" r:id="rId50" display="https://leetcode.com/problems/next-greater-element-iii/submissions/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="K36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L37" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L38" r:id="rId54" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L39" r:id="rId55" display="https://www.youtube.com/watch?v=awxaRgUB4Kw_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K38" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K39" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L40" r:id="rId58" display="https://www.youtube.com/watch?v=L_fIn5TM3mM" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K40" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="L41" r:id="rId60" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K41" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L42" r:id="rId62" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K42" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K43" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L44" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K44" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L45" r:id="rId67" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K45" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K46" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L4" r:id="rId70" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
-    <hyperlink ref="C5" r:id="rId71" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
-    <hyperlink ref="M11" r:id="rId72" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
-    <hyperlink ref="L20" r:id="rId73" xr:uid="{466A3819-F426-4D63-83F0-790B9AD18264}"/>
+    <hyperlink ref="L41" r:id="rId52" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L42" r:id="rId54" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K42" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K43" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K44" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L45" r:id="rId59" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K45" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L4" r:id="rId62" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
+    <hyperlink ref="C5" r:id="rId63" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
+    <hyperlink ref="M11" r:id="rId64" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
+    <hyperlink ref="L20" r:id="rId65" xr:uid="{466A3819-F426-4D63-83F0-790B9AD18264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
-  <drawing r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -6617,20 +6542,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
+      <c r="A2" s="71"/>
     </row>
     <row r="3" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="71" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="71" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="86" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6662,10 +6587,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="99">
+      <c r="A4" s="88">
         <v>7</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="88"/>
       <c r="C4" t="s">
         <v>511</v>
       </c>
@@ -6674,10 +6599,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="99">
+      <c r="A6" s="88">
         <v>17</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="88"/>
       <c r="C6" t="s">
         <v>513</v>
       </c>
@@ -6686,33 +6611,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="88" t="s">
         <v>514</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="88"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="99">
+      <c r="A8" s="88">
         <v>6</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="88">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="89">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="89" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="89">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
@@ -6721,7 +6646,7 @@
       <c r="A13" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="89">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6761,37 +6686,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="83" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="83" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="83" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="83" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="83" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="83" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="83" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6802,10 +6727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5BC23-FAF0-41AF-B3E7-457CD7E2F189}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6815,8 +6740,8 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="20" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="74.7109375" customWidth="1"/>
@@ -6829,7 +6754,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="61" t="s">
         <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -6863,11 +6788,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="55" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:13" s="46" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6875,7 +6800,7 @@
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6911,10 +6836,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
@@ -6933,7 +6858,7 @@
       <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="87" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -6943,32 +6868,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="90" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="80" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="L5" s="91" t="s">
+      <c r="L5" s="81" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6988,10 +6913,10 @@
       <c r="G6" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="63" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="20"/>
@@ -7002,75 +6927,75 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="90" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="80" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="76" t="s">
         <v>470</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="76" t="s">
         <v>471</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="90" t="s">
+      <c r="J7" s="82"/>
+      <c r="K7" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="L7" s="91" t="s">
+      <c r="L7" s="81" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="90" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="80" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="90" t="s">
+      <c r="J8" s="82"/>
+      <c r="K8" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="L8" s="91" t="s">
+      <c r="L8" s="81" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="5" t="s">
         <v>324</v>
       </c>
@@ -7104,7 +7029,7 @@
       <c r="A10" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B10" s="58"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="5" t="s">
         <v>331</v>
       </c>
@@ -7211,19 +7136,19 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="55" t="s">
         <v>507</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -7243,19 +7168,19 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="55" t="s">
         <v>517</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -7264,7 +7189,7 @@
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="100" t="s">
+      <c r="I15" s="89" t="s">
         <v>519</v>
       </c>
       <c r="K15" s="29" t="s">
@@ -7275,7 +7200,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="55" t="s">
         <v>522</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -7301,6 +7226,155 @@
       </c>
       <c r="M16" s="30" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:12" s="94" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G19" s="94" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="80" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="L20" s="81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="80" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="K21" s="97" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="80" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="82" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="97" t="s">
+        <v>259</v>
+      </c>
+      <c r="L22" s="81" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -7314,9 +7388,17 @@
     <hyperlink ref="K12" r:id="rId7" display="https://leetcode.com/problems/find-smallest-letter-greater-than-target/submissions/_x000a_" xr:uid="{9ABB4DE0-1BF9-4194-B3E9-6BC30B963B17}"/>
     <hyperlink ref="K13" r:id="rId8" xr:uid="{95898CA8-79EA-4FCC-8058-9F397134CDAA}"/>
     <hyperlink ref="K15" r:id="rId9" xr:uid="{263E6CEB-F740-4E5A-AA80-D257F7D3DF13}"/>
+    <hyperlink ref="L20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L21" r:id="rId12" display="https://leetcode.com/problems/number-of-1-bits/" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L22" r:id="rId13" display="https://www.youtube.com/watch?v=awxaRgUB4Kw_x000a__x000a_" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K22" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L23" r:id="rId16" display="https://www.youtube.com/watch?v=L_fIn5TM3mM" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -7349,7 +7431,7 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="60" t="s">
         <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -7383,28 +7465,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="53" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:13" s="44" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="88"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="5" t="s">
         <v>336</v>
       </c>
@@ -7437,7 +7519,7 @@
       <c r="A4" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B4" s="83"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="5" t="s">
         <v>345</v>
       </c>
@@ -7467,7 +7549,7 @@
       <c r="A5" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B5" s="83"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="5" t="s">
         <v>349</v>
       </c>
@@ -7500,7 +7582,7 @@
       <c r="A6" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="5" t="s">
         <v>357</v>
       </c>
@@ -7527,17 +7609,17 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="55" t="s">
         <v>362</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -7560,10 +7642,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="83"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="17" t="s">
         <v>371</v>
       </c>
@@ -7582,7 +7664,7 @@
       <c r="I8" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="56" t="s">
         <v>376</v>
       </c>
       <c r="K8" s="29" t="s">
@@ -7596,14 +7678,14 @@
       <c r="A9" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="5" t="s">
         <v>381</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="57" t="s">
         <v>380</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -7632,7 +7714,7 @@
       <c r="A10" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="89"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="23" t="s">
         <v>388</v>
       </c>
@@ -7651,13 +7733,13 @@
       <c r="I10" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="59" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7734,7 +7816,7 @@
       <c r="A13" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="5" t="s">
         <v>410</v>
       </c>
@@ -7825,14 +7907,14 @@
       </c>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="37" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7924,21 +8006,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="104" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+    <row r="2" spans="1:12" s="93" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="103"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7962,22 +8044,22 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" s="61" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:12" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="60"/>
-      <c r="L5" s="62" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="51"/>
+      <c r="L5" s="53" t="s">
         <v>332</v>
       </c>
     </row>

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A0510-EB27-47D0-B861-B5A7A06E0390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905935AD-5BEA-4EC5-BC1E-3906BAF7960E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="543">
   <si>
     <t>Problem</t>
   </si>
@@ -3753,12 +3753,40 @@
   <si>
     <t>Maximum Product Subarray</t>
   </si>
+  <si>
+    <t>A Product Array Puzzle</t>
+  </si>
+  <si>
+    <t>Given an array arr[] of n integers, construct a Product Array prod[] (of same size) such that prod[i] is equal to the product of all the elements of arr[] except arr[i]. Solve it without division operator in O(n) time.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/product-array-puzzle4525/1#
+https://www.geeksforgeeks.org/a-product-array-puzzle/</t>
+  </si>
+  <si>
+    <t>Approaches:
+1.Using Prefix and Suffix array
+2..Replacing Prefix and Suffix array with a temp varaible
+3.Using Divisor Operator</t>
+  </si>
+  <si>
+    <t>Approaches:
+1.Using Prefix and Suffix array-O(n)
+2..Replacing Prefix and Suffix array-with a temp varaible -O(n) 
+3.Using Divisor Operator -O(n)</t>
+  </si>
+  <si>
+    <t>Approaches:
+1.Using Prefix and Suffix array-O(n)
+2..Replacing Prefix and Suffix array with a temp varaible-O(1)
+3.Using Divisor Operator-O(1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3967,12 +3995,6 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -4214,7 +4236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4409,9 +4431,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4440,7 +4459,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4460,18 +4479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4489,8 +4496,26 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4577,13 +4602,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1381126</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>4914900</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>895350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4889,11 +4914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,7 +5018,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="75" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="66"/>
@@ -5026,8 +5051,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
         <v>429</v>
       </c>
       <c r="B5" s="66"/>
@@ -5052,8 +5077,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="66"/>
@@ -5559,10 +5584,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="23" t="s">
         <v>135</v>
       </c>
@@ -5827,7 +5852,7 @@
       <c r="A29" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="73"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="5" t="s">
         <v>180</v>
       </c>
@@ -5929,7 +5954,7 @@
       <c r="A32" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="5" t="s">
         <v>204</v>
       </c>
@@ -5963,7 +5988,7 @@
       <c r="A33" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="74"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="5" t="s">
         <v>213</v>
       </c>
@@ -5999,7 +6024,7 @@
       <c r="A34" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="73"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="5" t="s">
         <v>221</v>
       </c>
@@ -6033,7 +6058,7 @@
       <c r="A35" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="73"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="5" t="s">
         <v>227</v>
       </c>
@@ -6067,7 +6092,7 @@
       <c r="A36" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="5" t="s">
         <v>232</v>
       </c>
@@ -6097,362 +6122,399 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+    <row r="37" spans="1:12" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="38" t="s">
+      <c r="B37" s="74"/>
+      <c r="C37" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D37" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33" t="s">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G37" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="H41" s="38" t="s">
+      <c r="H37" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I37" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="J41" s="42" t="s">
+      <c r="J37" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K37" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="L41" s="40" t="s">
+      <c r="L37" s="40" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="75"/>
+      <c r="C38" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="72"/>
+      <c r="C40" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42" s="76"/>
+        <v>306</v>
+      </c>
+      <c r="B42" s="73"/>
       <c r="C42" s="5" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>282</v>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="I42" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="K42" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="79" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B44" s="63"/>
+      <c r="C44" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="63"/>
+      <c r="F44" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>458</v>
+      </c>
+      <c r="I44" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="L42" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="24" t="s">
+      <c r="J44" s="81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K44" s="79" t="s">
+        <v>459</v>
+      </c>
+      <c r="L44" s="80" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="79" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="63"/>
+      <c r="C45" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H43" s="4" t="s">
+      <c r="E45" s="63"/>
+      <c r="F45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="L43" s="30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="I45" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" s="81"/>
+      <c r="K45" s="79" t="s">
+        <v>464</v>
+      </c>
+      <c r="L45" s="80" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="95" t="s">
+        <v>536</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="L44" s="29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="74"/>
-      <c r="C45" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="L46" s="30" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="80" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G48" s="76" t="s">
-        <v>461</v>
-      </c>
-      <c r="H48" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="I48" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J48" s="82" t="s">
-        <v>460</v>
-      </c>
-      <c r="K48" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="L48" s="81" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="80" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="63"/>
-      <c r="F49" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="G49" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="82"/>
-      <c r="K49" s="80" t="s">
-        <v>464</v>
-      </c>
-      <c r="L49" s="81" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="J51" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="L51" s="30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="100" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
+      <c r="J49" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>539</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6507,16 +6569,16 @@
     <hyperlink ref="K35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="L36" r:id="rId50" display="https://leetcode.com/problems/next-greater-element-iii/submissions/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="K36" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L41" r:id="rId52" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K41" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L42" r:id="rId54" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K42" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K43" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L44" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K44" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L45" r:id="rId59" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K45" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K46" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L37" r:id="rId52" display="https://leetcode.com/problems/trapping-rain-water/solution/_x000a_" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K37" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L38" r:id="rId54" display="https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K38" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K39" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L40" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K40" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L41" r:id="rId59" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K41" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K42" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="L4" r:id="rId62" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
     <hyperlink ref="C5" r:id="rId63" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
     <hyperlink ref="M11" r:id="rId64" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
@@ -6555,7 +6617,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="85" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6587,10 +6649,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="88">
+      <c r="A4" s="87">
         <v>7</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="87"/>
       <c r="C4" t="s">
         <v>511</v>
       </c>
@@ -6599,10 +6661,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
+      <c r="A6" s="87">
         <v>17</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="87"/>
       <c r="C6" t="s">
         <v>513</v>
       </c>
@@ -6611,33 +6673,33 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>514</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="87"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+      <c r="A8" s="87">
         <v>6</v>
       </c>
-      <c r="B8" s="88">
+      <c r="B8" s="87">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="88" t="s">
         <v>510</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="88">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="88">
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
@@ -6646,7 +6708,7 @@
       <c r="A13" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="89">
+      <c r="B13" s="88">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6686,37 +6748,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="82" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="82" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="82" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="82" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6729,7 +6791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5BC23-FAF0-41AF-B3E7-457CD7E2F189}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -6858,7 +6920,7 @@
       <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="86" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -6868,7 +6930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="80" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="79" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>487</v>
       </c>
@@ -6881,19 +6943,19 @@
       <c r="F5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="75" t="s">
         <v>489</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="75" t="s">
         <v>54</v>
       </c>
       <c r="I5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="81" t="s">
         <v>490</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="80" t="s">
         <v>491</v>
       </c>
     </row>
@@ -6913,7 +6975,7 @@
       <c r="G6" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="75" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="63" t="s">
@@ -6927,7 +6989,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="80" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="79" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>468</v>
       </c>
@@ -6942,24 +7004,24 @@
       <c r="F7" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="75" t="s">
         <v>470</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="75" t="s">
         <v>471</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="80" t="s">
+      <c r="J7" s="81"/>
+      <c r="K7" s="79" t="s">
         <v>473</v>
       </c>
-      <c r="L7" s="81" t="s">
+      <c r="L7" s="80" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="80" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="79" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>482</v>
       </c>
@@ -6974,20 +7036,20 @@
       <c r="F8" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="80" t="s">
+      <c r="J8" s="81"/>
+      <c r="K8" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="L8" s="80" t="s">
         <v>486</v>
       </c>
     </row>
@@ -6995,7 +7057,7 @@
       <c r="A9" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="5" t="s">
         <v>324</v>
       </c>
@@ -7189,7 +7251,7 @@
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="88" t="s">
         <v>519</v>
       </c>
       <c r="K15" s="29" t="s">
@@ -7230,24 +7292,24 @@
     </row>
     <row r="17" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:12" s="94" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="G19" s="94" t="s">
+    <row r="19" spans="1:12" s="89" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G19" s="89" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="80" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:12" s="79" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="91" t="s">
         <v>238</v>
       </c>
       <c r="D20" s="63" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="63"/>
-      <c r="F20" s="95" t="s">
+      <c r="F20" s="90" t="s">
         <v>237</v>
       </c>
       <c r="G20" s="63" t="s">
@@ -7259,34 +7321,34 @@
       <c r="I20" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="J20" s="82" t="s">
+      <c r="J20" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="K20" s="97" t="s">
+      <c r="K20" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="81" t="s">
+      <c r="L20" s="80" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="80" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="s">
+    <row r="21" spans="1:12" s="79" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="91" t="s">
         <v>250</v>
       </c>
       <c r="D21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="G21" s="96" t="s">
+      <c r="G21" s="91" t="s">
         <v>251</v>
       </c>
       <c r="H21" s="63" t="s">
@@ -7295,49 +7357,49 @@
       <c r="I21" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="J21" s="81" t="s">
         <v>248</v>
       </c>
-      <c r="K21" s="97" t="s">
+      <c r="K21" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L21" s="80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="80" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98" t="s">
+    <row r="22" spans="1:12" s="79" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="76" t="s">
+      <c r="B22" s="90"/>
+      <c r="C22" s="75" t="s">
         <v>253</v>
       </c>
       <c r="D22" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="95" t="s">
+      <c r="F22" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="G22" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="H22" s="76" t="s">
+      <c r="H22" s="75" t="s">
         <v>257</v>
       </c>
       <c r="I22" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="J22" s="82" t="s">
+      <c r="J22" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="K22" s="97" t="s">
+      <c r="K22" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="L22" s="81" t="s">
+      <c r="L22" s="80" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7486,7 +7548,7 @@
       <c r="A3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="5" t="s">
         <v>336</v>
       </c>
@@ -7519,7 +7581,7 @@
       <c r="A4" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="5" t="s">
         <v>345</v>
       </c>
@@ -7549,7 +7611,7 @@
       <c r="A5" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="5" t="s">
         <v>349</v>
       </c>
@@ -7582,7 +7644,7 @@
       <c r="A6" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="5" t="s">
         <v>357</v>
       </c>
@@ -7612,7 +7674,7 @@
       <c r="A7" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="4" t="s">
         <v>363</v>
       </c>
@@ -7645,7 +7707,7 @@
       <c r="A8" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="17" t="s">
         <v>371</v>
       </c>
@@ -7678,7 +7740,7 @@
       <c r="A9" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="5" t="s">
         <v>381</v>
       </c>
@@ -7714,7 +7776,7 @@
       <c r="A10" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="B10" s="79"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="23" t="s">
         <v>388</v>
       </c>
@@ -8006,21 +8068,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="93" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:12" s="99" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/InterviewPrepration.xlsx
+++ b/InterviewPrepration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905935AD-5BEA-4EC5-BC1E-3906BAF7960E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14583F7E-E96F-4FFC-936E-D1CACEAA0E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="586">
   <si>
     <t>Problem</t>
   </si>
@@ -3631,27 +3631,6 @@
 https://www.youtube.com/watch?v=OINnBJTRrMU&amp;list=PL_z_8CaSLPWeYfhtuKHj-9MpYb6XQJ_f2&amp;index=17</t>
   </si>
   <si>
-    <t xml:space="preserve">April </t>
-  </si>
-  <si>
-    <t>Maithli</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Sinchinna</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>Till 14 June</t>
-  </si>
-  <si>
     <t>Search In Sorted Matrix</t>
   </si>
   <si>
@@ -3781,12 +3760,286 @@
 2..Replacing Prefix and Suffix array with a temp varaible-O(1)
 3.Using Divisor Operator-O(1)</t>
   </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                               Miscllaneous</t>
+  </si>
+  <si>
+    <t>GCD and LCM of 2 numbers</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/program-to-find-lcm-of-2-numbers-without-using-gcd/?ref=rp</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Miscellaneous/GCDAndLCM2Numbers.java</t>
+  </si>
+  <si>
+    <t>Square root of a number</t>
+  </si>
+  <si>
+    <r>
+      <t>Given an integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> find the square root of x. If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is not a perfect square, then return floor(√x).</t>
+    </r>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/square-root/1</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/SquareRootOfANumber.txt</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-first-last-digits-number/</t>
+  </si>
+  <si>
+    <t>Find first and last digits of a number</t>
+  </si>
+  <si>
+    <t>Count trailing zeroes in factorial of a number</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Arrays/FirstAndLastDigitOfANumber.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">https://www.geeksforgeeks.org/count-trailing-zeroes-factorial-number/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.youtube.com/watch?v=wkvVdggCSeo</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/Miscellaneous/Count%20Trailing%20zeros%20in%20factorial%20of%20a%20number.txt</t>
+  </si>
+  <si>
+    <t>O(log5n)- Log Base 5 of n</t>
+  </si>
+  <si>
+    <t>Minimize the maximum difference between the heights</t>
+  </si>
+  <si>
+    <t>Given heights of n towers and a value k. We need to either increase or decrease the height of every tower by k (only once) where k &gt; 0. The task is to minimize the difference between the heights of the longest and the shortest tower after modifications and output this difference.</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pUj1Xia3FPw</t>
+  </si>
+  <si>
+    <t>Find the fastest 3 horses</t>
+  </si>
+  <si>
+    <r>
+      <t>There are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>25 horses. We have to find out the fastest 3 horses. In one race maximum 5 horses can run. How many such races are required in minimum to get the result?</t>
+    </r>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Idea is to Elliminate the horses:
+1.First Conduct races in group of 5 , note the result in a table
+2. Elliminate the 4th and 5th candidate from each race group as we are interested in top 3 only
+3.now conduct 6th race bw winners of all race groups , note the top 3 winners. Elliminate the last 2 horses. and there entire group
+4.Elliminate the 2 and 3 winners from the race group of which 3rd finilast horse 
+5.Conduct final race bw rem horses to find 2 and 3 fastest horses</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Array</t>
+  </si>
+  <si>
+    <t>Sort K Sorted Array</t>
+  </si>
+  <si>
+    <t>Flattening a Linked List</t>
+  </si>
+  <si>
+    <t>Write a function flatten() to flatten the lists into a single linked list. The flattened linked list should also be sorted</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/flattening-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/LinkedList/FlattenLinkedList.java
+https://www.youtube.com/watch?v=ysytSSXpAI0</t>
+  </si>
+  <si>
+    <t>Delete last occurrence of an item from linked list</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/delete-last-occurrence-of-an-item-from-linked-list/</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/LinkedList/Delete%20Last%20Occurence%20from%20List.java</t>
+  </si>
+  <si>
+    <t>Idea is to traverse the list find the last occurrence and prev node.</t>
+  </si>
+  <si>
+    <t>Rotate a Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/rotate-a-linked-list/</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/LinkedList/Rotate%20Linked%20lIst.java</t>
+  </si>
+  <si>
+    <r>
+      <t>Given a singly linked list, rotate the linked list c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ounter-clockwise (Right Rotation)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by k nodes. Where k is a given positive integer</t>
+    </r>
+  </si>
+  <si>
+    <t>Reverse a Linked List in groups of given size</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-a-linked-list-in-groups-of-given-size-iterative-approach/?ref=rp</t>
+  </si>
+  <si>
+    <t>https://github.com/Learner-max/DataStructures/blob/main/LinkedList/Reverse%20List%20in%20group.java</t>
+  </si>
+  <si>
+    <t>Remove duplicate element from sorted Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/remove-duplicate-element-from-sorted-linked-list/1#
+https://www.geeksforgeeks.org/remove-duplicates-from-a-sorted-linked-list/</t>
+  </si>
+  <si>
+    <t>Remove Loop in a Linked List</t>
+  </si>
+  <si>
+    <r>
+      <t>You are given the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>head of a linked list which probably contains a loop. If the list contains a loop, you need to find the last node of the list which points to one of its previous nodes to create a loop and make it point to NULL, thereby removing the loop.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://afteracademy.com/blog/detect-and-remove-loop-in-a-linked-list</t>
+  </si>
+  <si>
+    <t>Idea is to first detect the presence of loop in list , then find the start of loop .Only change required in the code for finding the satrt of list is:
+while(slow.next!=fast.next)
+{ 
+   slow=slow.next;
+   fast=fast.next
+}
+fast.next=null;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4063,6 +4316,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -4162,7 +4461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4231,12 +4530,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4516,6 +4826,27 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4526,9 +4857,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF9966"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FF5DF95D"/>
       <color rgb="FFD4FECE"/>
       <color rgb="FFFF6600"/>
@@ -4646,6 +4977,205 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>771524</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Star: 5 Points 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FA7114-66EA-47D1-A125-A67628074C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="60359925"/>
+          <a:ext cx="571499" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0066"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Star: 5 Points 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D3A235-06D4-4F87-8911-0F9C2EA11C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="18669000"/>
+          <a:ext cx="1019175" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0066"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Star: 5 Points 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8E9B33-F144-40F3-91BC-B6B7E0DEA15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="1562100"/>
+          <a:ext cx="371475" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0066"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4914,19 +5444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="16" style="12" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="12" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="51.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" style="12" customWidth="1"/>
@@ -4946,10 +5476,10 @@
         <v>292</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>9</v>
@@ -4986,11 +5516,11 @@
         <v>29</v>
       </c>
       <c r="B3" s="66"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>38</v>
@@ -5022,11 +5552,11 @@
         <v>34</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
@@ -5056,11 +5586,11 @@
         <v>429</v>
       </c>
       <c r="B5" s="66"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
@@ -5082,11 +5612,11 @@
         <v>44</v>
       </c>
       <c r="B6" s="66"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
@@ -5116,11 +5646,11 @@
         <v>189</v>
       </c>
       <c r="B7" s="66"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
@@ -5150,11 +5680,11 @@
         <v>57</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
@@ -5184,11 +5714,11 @@
         <v>65</v>
       </c>
       <c r="B9" s="66"/>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
@@ -5218,11 +5748,11 @@
         <v>69</v>
       </c>
       <c r="B10" s="64"/>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -5249,11 +5779,11 @@
         <v>76</v>
       </c>
       <c r="B11" s="34"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
@@ -5286,11 +5816,11 @@
         <v>78</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
@@ -5320,11 +5850,11 @@
         <v>89</v>
       </c>
       <c r="B13" s="64"/>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
@@ -5354,11 +5884,11 @@
         <v>94</v>
       </c>
       <c r="B14" s="64"/>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
@@ -5385,11 +5915,11 @@
         <v>98</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
@@ -5419,11 +5949,11 @@
         <v>110</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
@@ -5453,11 +5983,11 @@
         <v>114</v>
       </c>
       <c r="B17" s="69"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
@@ -5484,11 +6014,11 @@
         <v>120</v>
       </c>
       <c r="B18" s="34"/>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -5518,11 +6048,11 @@
         <v>126</v>
       </c>
       <c r="B19" s="70"/>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>38</v>
@@ -5540,13 +6070,13 @@
         <v>59</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>129</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,11 +6084,11 @@
         <v>130</v>
       </c>
       <c r="B20" s="34"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
@@ -5588,11 +6118,11 @@
         <v>138</v>
       </c>
       <c r="B21" s="84"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>137</v>
@@ -5624,11 +6154,11 @@
         <v>144</v>
       </c>
       <c r="B22" s="34"/>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
@@ -5656,11 +6186,11 @@
         <v>147</v>
       </c>
       <c r="B23" s="34"/>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
@@ -5690,11 +6220,11 @@
         <v>155</v>
       </c>
       <c r="B24" s="65"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
@@ -5724,11 +6254,11 @@
         <v>161</v>
       </c>
       <c r="B25" s="65"/>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -5758,11 +6288,11 @@
         <v>165</v>
       </c>
       <c r="B26" s="34"/>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
@@ -5789,11 +6319,11 @@
         <v>168</v>
       </c>
       <c r="B27" s="34"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -5821,11 +6351,11 @@
         <v>175</v>
       </c>
       <c r="B28" s="64"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="5" t="s">
@@ -5853,11 +6383,11 @@
         <v>179</v>
       </c>
       <c r="B29" s="72"/>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
@@ -5887,11 +6417,11 @@
         <v>186</v>
       </c>
       <c r="B30" s="70"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
@@ -5921,11 +6451,11 @@
         <v>195</v>
       </c>
       <c r="B31" s="70"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
@@ -5955,11 +6485,11 @@
         <v>203</v>
       </c>
       <c r="B32" s="73"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
@@ -5989,11 +6519,11 @@
         <v>211</v>
       </c>
       <c r="B33" s="73"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>214</v>
@@ -6025,11 +6555,11 @@
         <v>220</v>
       </c>
       <c r="B34" s="72"/>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -6059,11 +6589,11 @@
         <v>226</v>
       </c>
       <c r="B35" s="72"/>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -6093,11 +6623,11 @@
         <v>231</v>
       </c>
       <c r="B36" s="72"/>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -6127,11 +6657,11 @@
         <v>268</v>
       </c>
       <c r="B37" s="74"/>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="38" t="s">
         <v>269</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>139</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33" t="s">
@@ -6161,11 +6691,11 @@
         <v>276</v>
       </c>
       <c r="B38" s="75"/>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>279</v>
@@ -6197,11 +6727,11 @@
         <v>284</v>
       </c>
       <c r="B39" s="73"/>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5" t="s">
@@ -6231,11 +6761,11 @@
         <v>293</v>
       </c>
       <c r="B40" s="72"/>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
@@ -6265,11 +6795,11 @@
         <v>303</v>
       </c>
       <c r="B41" s="73"/>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
@@ -6297,11 +6827,11 @@
         <v>306</v>
       </c>
       <c r="B42" s="73"/>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
@@ -6329,11 +6859,11 @@
         <v>314</v>
       </c>
       <c r="B43" s="76"/>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="50" t="s">
         <v>315</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>139</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="50" t="s">
@@ -6363,11 +6893,11 @@
         <v>455</v>
       </c>
       <c r="B44" s="63"/>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>139</v>
       </c>
       <c r="E44" s="63"/>
       <c r="F44" s="4" t="s">
@@ -6397,11 +6927,11 @@
         <v>462</v>
       </c>
       <c r="B45" s="63"/>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>39</v>
       </c>
       <c r="E45" s="63"/>
       <c r="F45" s="5" t="s">
@@ -6426,13 +6956,13 @@
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -6442,18 +6972,18 @@
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>532</v>
+        <v>39</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>39</v>
+        <v>525</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>53</v>
@@ -6465,15 +6995,15 @@
         <v>353</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="95" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6487,34 +7017,83 @@
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L49" s="30" t="s">
-        <v>539</v>
-      </c>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="20"/>
+      <c r="L50" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6564,7 +7143,7 @@
     <hyperlink ref="L33" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="L34" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="K34" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C35" r:id="rId47" display="https://www.geeksforgeeks.org/sort-array-wave-form-2/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D35" r:id="rId47" display="https://www.geeksforgeeks.org/sort-array-wave-form-2/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="L35" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="K35" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="L36" r:id="rId50" display="https://leetcode.com/problems/next-greater-element-iii/submissions/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
@@ -6580,7 +7159,7 @@
     <hyperlink ref="K41" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="K42" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="L4" r:id="rId62" xr:uid="{469054A1-1773-4306-A3BC-BD52E620C1EB}"/>
-    <hyperlink ref="C5" r:id="rId63" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
+    <hyperlink ref="D5" r:id="rId63" display="https://www.geeksforgeeks.org/array-data-structure/" xr:uid="{76BAD67A-5F46-4E07-89D4-BD27BF69E682}"/>
     <hyperlink ref="M11" r:id="rId64" xr:uid="{86D39059-6743-4031-91AA-15C2B8506D16}"/>
     <hyperlink ref="L20" r:id="rId65" xr:uid="{466A3819-F426-4D63-83F0-790B9AD18264}"/>
   </hyperlinks>
@@ -6629,91 +7208,88 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="87">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="107">
         <v>7</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="87">
-        <v>17</v>
-      </c>
-      <c r="B6" s="87"/>
-      <c r="C6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" s="87"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="87">
-        <v>6</v>
-      </c>
-      <c r="B8" s="87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
-        <v>510</v>
-      </c>
-      <c r="B11" s="88">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
-        <v>512</v>
-      </c>
-      <c r="B12" s="88">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B13" s="88">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>516</v>
-      </c>
+      <c r="D2" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6738,8 +7314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41B36D5-D3E7-4D26-B6BF-4691E0D5A414}">
   <dimension ref="A6:A12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6791,8 +7367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF5BC23-FAF0-41AF-B3E7-457CD7E2F189}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7231,48 +7807,48 @@
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I15" s="88" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>54</v>
@@ -7281,20 +7857,45 @@
         <v>59</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>540</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
     <row r="18" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" s="89" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="G19" s="89" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="79" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7466,27 +8067,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="66" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="46.28515625" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="10" max="10" width="54.85546875" customWidth="1"/>
     <col min="11" max="11" width="111.28515625" customWidth="1"/>
-    <col min="12" max="12" width="74" customWidth="1"/>
+    <col min="12" max="12" width="100.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
@@ -7736,248 +8337,421 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>378</v>
+        <v>582</v>
       </c>
       <c r="B9" s="73"/>
-      <c r="C9" s="5" t="s">
-        <v>381</v>
+      <c r="C9" s="17" t="s">
+        <v>583</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="57" t="s">
-        <v>380</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>383</v>
+        <v>582</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>385</v>
-      </c>
+      <c r="J9" s="56" t="s">
+        <v>585</v>
+      </c>
+      <c r="K9" s="29"/>
       <c r="L9" s="21" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="25" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="23" t="s">
-        <v>388</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="57" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="L10" s="59" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>396</v>
+      <c r="B11" s="78"/>
+      <c r="C11" s="23" t="s">
+        <v>388</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>399</v>
+      <c r="F11" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>391</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="J11" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>403</v>
+        <v>396</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>353</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>404</v>
+        <v>400</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B13" s="55"/>
+        <v>402</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>39</v>
+        <v>401</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>412</v>
+        <v>402</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>353</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>413</v>
+        <v>454</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>404</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>415</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B14" s="55"/>
       <c r="C14" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="I14" s="24" t="s">
         <v>353</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>421</v>
+        <v>414</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>53</v>
+        <v>418</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>353</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="L15" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" s="62" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D17" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F17" s="37" t="s">
         <v>420</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G21" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -7991,22 +8765,26 @@
     <hyperlink ref="K7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="L8" r:id="rId8" display="https://leetcode.com/problems/linked-list-cycle-ii/" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
     <hyperlink ref="K8" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="L9" r:id="rId10" display="https://afteracademy.com/blog/check-if-the-singly-linked-list-is-a-palindrome" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="K9" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L10" r:id="rId12" display="https://iq.opengenus.org/reverse-linked-list-alternative-k-nodes/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="K10" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="L11" r:id="rId14" display="https://leetcode.com/problems/copy-list-with-random-pointer/submissions/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="K11" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="L12" r:id="rId16" display="https://algorithms.tutorialhorizon.com/alternate-splitting-of-a-given-linked-list/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="K12" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="L13" r:id="rId18" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="K13" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="L14" r:id="rId20" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="K14" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="K15" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="L10" r:id="rId10" display="https://afteracademy.com/blog/check-if-the-singly-linked-list-is-a-palindrome" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="K10" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="L11" r:id="rId12" display="https://iq.opengenus.org/reverse-linked-list-alternative-k-nodes/" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="K11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="L12" r:id="rId14" display="https://leetcode.com/problems/copy-list-with-random-pointer/submissions/" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="K12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="L13" r:id="rId16" display="https://algorithms.tutorialhorizon.com/alternate-splitting-of-a-given-linked-list/" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="K13" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="L14" r:id="rId18" display="https://www.geeksforgeeks.org/segregate-even-and-odd-elements-in-a-linked-list/" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="K14" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="L15" r:id="rId20" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="K15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="K16" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="K19" r:id="rId23" xr:uid="{399C1DB6-13E0-43AB-A51D-528C00FF7E5B}"/>
+    <hyperlink ref="L20" r:id="rId24" xr:uid="{540884BD-00E7-4A61-B043-CF56A38B0FB9}"/>
+    <hyperlink ref="L22" r:id="rId25" location="_x000a_" display="https://practice.geeksforgeeks.org/problems/remove-duplicate-element-from-sorted-linked-list/1#_x000a_" xr:uid="{9EC1AABC-9651-4F53-878D-199964DA81EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -8177,12 +8955,173 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="87" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="87" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="87" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="87" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="87" customWidth="1"/>
+    <col min="11" max="11" width="101.28515625" style="87" customWidth="1"/>
+    <col min="12" max="12" width="83.28515625" style="87" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="46" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="L3" s="103" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88" t="s">
+        <v>547</v>
+      </c>
+      <c r="L4" s="88" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G5" s="104" t="s">
+        <v>550</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{4962FB11-3C0B-4C5A-B2D7-F3372B60D342}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{1923C14C-ED52-48AA-8BA7-4F3AE3EA9D57}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>